--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="4" r:id="rId2"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId3"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId3"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Clothes!$A$1:$G$51</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>Username</t>
   </si>
@@ -118,6 +122,162 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>This top trend combines a casual look to a flawless look!</t>
+  </si>
+  <si>
+    <t>Material: 100% cotton
+Dark blue faded
+Classic straight cut and flared
+Normal thickness</t>
+  </si>
+  <si>
+    <t>Blouse</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Troser</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Coat</t>
+  </si>
+  <si>
+    <t>Top1</t>
+  </si>
+  <si>
+    <t>Blouse1</t>
+  </si>
+  <si>
+    <t>Dress1</t>
+  </si>
+  <si>
+    <t>Dress2</t>
+  </si>
+  <si>
+    <t>dress3</t>
+  </si>
+  <si>
+    <t>Skirt1</t>
+  </si>
+  <si>
+    <t>Skirt2</t>
+  </si>
+  <si>
+    <t>Dress5</t>
+  </si>
+  <si>
+    <t>Jeans1</t>
+  </si>
+  <si>
+    <t>Jeans2</t>
+  </si>
+  <si>
+    <t>Jeans3</t>
+  </si>
+  <si>
+    <t>Jeans4</t>
+  </si>
+  <si>
+    <t>Jeans5</t>
+  </si>
+  <si>
+    <t>Jeans6</t>
+  </si>
+  <si>
+    <t>Jeans56</t>
+  </si>
+  <si>
+    <t>Jeans7</t>
+  </si>
+  <si>
+    <t>Jeans8</t>
+  </si>
+  <si>
+    <t>Jeans9</t>
+  </si>
+  <si>
+    <t>Blouse12</t>
+  </si>
+  <si>
+    <t>Blouse5</t>
+  </si>
+  <si>
+    <t>Blouse6</t>
+  </si>
+  <si>
+    <t>blouse7</t>
+  </si>
+  <si>
+    <t>Blouse8</t>
+  </si>
+  <si>
+    <t>Blouse13</t>
+  </si>
+  <si>
+    <t>Blouse4</t>
+  </si>
+  <si>
+    <t>Dress7</t>
+  </si>
+  <si>
+    <t>Dress6</t>
+  </si>
+  <si>
+    <t>Dress8</t>
+  </si>
+  <si>
+    <t>Dress9</t>
+  </si>
+  <si>
+    <t>Dress10</t>
+  </si>
+  <si>
+    <t>Dress11</t>
   </si>
 </sst>
 </file>
@@ -139,15 +299,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,19 +327,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
@@ -661,6 +868,4174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G381"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="11.140625" style="4"/>
+    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5">
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="5">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5">
+        <v>50</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="5">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="5">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="5">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="5">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="5">
+        <v>50</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="5">
+        <v>50</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="5">
+        <v>50</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5">
+        <v>50</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="5">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="5">
+        <v>50</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="5">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="5">
+        <v>50</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5">
+        <v>50</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="5">
+        <v>50</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5">
+        <v>50</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="5">
+        <v>50</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="5">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="5">
+        <v>50</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="5">
+        <v>50</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="5">
+        <v>50</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="5">
+        <v>50</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="5"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="5"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="5"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="5"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="5"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="5"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="5"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="5"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="5"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="5"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="5"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="5"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="5"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="5"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="5"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="5"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="5"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="5"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="5"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="5"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="5"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="5"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="5"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="5"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="5"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G51"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,23 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Registration" sheetId="4" r:id="rId2"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId3"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId4"/>
+    <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginInvalid" sheetId="7" r:id="rId2"/>
+    <sheet name="LoginBlankPW" sheetId="8" r:id="rId3"/>
+    <sheet name="LoginBlankUN" sheetId="9" r:id="rId4"/>
+    <sheet name="BillingAddress" sheetId="6" r:id="rId5"/>
+    <sheet name="Registration" sheetId="4" r:id="rId6"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId7"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Clothes!$A$1:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
   <si>
     <t>Username</t>
   </si>
@@ -59,9 +63,6 @@
   </si>
   <si>
     <t>Cairo</t>
-  </si>
-  <si>
-    <t>ZAQ!cde3</t>
   </si>
   <si>
     <t>csadek@integrant.com</t>
@@ -278,13 +279,31 @@
   </si>
   <si>
     <t>Dress11</t>
+  </si>
+  <si>
+    <t>test123@email.com</t>
+  </si>
+  <si>
+    <t>eng.mohammadrihan@gmail.com</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>h0tr1ngG</t>
+  </si>
+  <si>
+    <t>ZAQ!cde3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +317,23 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,10 +383,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,8 +400,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -677,29 +729,29 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,104 +759,245 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="P@ssw0rd"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>566</v>
+      </c>
+      <c r="G2">
+        <v>11411</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV65536"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -812,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -824,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>36254</v>
@@ -845,16 +1038,16 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -866,1196 +1059,1196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="5" width="11.109375" style="4"/>
+    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5">
         <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5">
         <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5">
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5">
         <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5">
         <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5">
         <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5">
         <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5">
         <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5">
         <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5">
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5">
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5">
         <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="5">
         <v>50</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5">
         <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5">
         <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5">
         <v>50</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5">
         <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5">
         <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5">
         <v>50</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5">
         <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5">
         <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5">
         <v>50</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5">
         <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5">
         <v>50</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5">
         <v>50</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="5">
         <v>50</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5">
         <v>50</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="5">
         <v>50</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5">
         <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="5">
         <v>50</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="5">
         <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5">
         <v>50</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="5">
         <v>50</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5">
         <v>50</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="5">
         <v>50</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="5">
         <v>50</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="5">
         <v>50</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="5">
         <v>50</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="5">
         <v>50</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" s="5">
         <v>50</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="5">
         <v>50</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" s="5">
         <v>50</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" s="5">
         <v>50</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" s="5">
         <v>50</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2064,7 +2257,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2073,7 +2266,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2082,7 +2275,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2091,7 +2284,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2100,7 +2293,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2109,7 +2302,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2118,7 +2311,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2127,7 +2320,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2136,7 +2329,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2145,7 +2338,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2154,7 +2347,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2163,7 +2356,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2172,7 +2365,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2181,7 +2374,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2190,7 +2383,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2199,7 +2392,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2208,7 +2401,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2217,7 +2410,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2226,7 +2419,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2235,7 +2428,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2244,7 +2437,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2253,7 +2446,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2262,7 +2455,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2271,7 +2464,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2280,7 +2473,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2289,7 +2482,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2298,7 +2491,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2307,7 +2500,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2316,7 +2509,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2325,7 +2518,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2334,7 +2527,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2343,7 +2536,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2352,7 +2545,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2361,7 +2554,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2370,7 +2563,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2379,7 +2572,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2388,7 +2581,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2397,7 +2590,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2406,7 +2599,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2415,7 +2608,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2424,7 +2617,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2433,7 +2626,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2442,7 +2635,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2451,7 +2644,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2460,7 +2653,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2469,7 +2662,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2478,7 +2671,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2487,7 +2680,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2496,7 +2689,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2505,7 +2698,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2514,7 +2707,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2523,7 +2716,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2532,7 +2725,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2541,7 +2734,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2550,7 +2743,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2559,7 +2752,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2568,7 +2761,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2577,7 +2770,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2586,7 +2779,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2595,7 +2788,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2604,7 +2797,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2613,7 +2806,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2622,7 +2815,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2631,7 +2824,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2640,7 +2833,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2649,7 +2842,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2658,7 +2851,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2667,7 +2860,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2676,7 +2869,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2685,7 +2878,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2694,7 +2887,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2703,7 +2896,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2712,7 +2905,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -2721,7 +2914,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2730,7 +2923,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -2739,7 +2932,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2748,7 +2941,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2757,7 +2950,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2766,7 +2959,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2775,7 +2968,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2784,7 +2977,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2793,7 +2986,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2802,7 +2995,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -2811,7 +3004,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2820,7 +3013,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2829,7 +3022,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2838,7 +3031,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2847,7 +3040,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2856,7 +3049,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2865,7 +3058,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2874,7 +3067,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -2883,7 +3076,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2892,7 +3085,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2901,7 +3094,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2910,7 +3103,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2919,7 +3112,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -2928,7 +3121,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2937,7 +3130,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -2946,7 +3139,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2955,7 +3148,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -2964,7 +3157,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -2973,7 +3166,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -2982,7 +3175,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -2991,7 +3184,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3000,7 +3193,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3009,7 +3202,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3018,7 +3211,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3027,7 +3220,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3036,7 +3229,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3045,7 +3238,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3054,7 +3247,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3063,7 +3256,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3072,7 +3265,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3081,7 +3274,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3090,7 +3283,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3099,7 +3292,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3108,7 +3301,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3117,7 +3310,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3126,7 +3319,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3135,7 +3328,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3144,7 +3337,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3153,7 +3346,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3162,7 +3355,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3171,7 +3364,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3180,7 +3373,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3189,7 +3382,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3198,7 +3391,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3207,7 +3400,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3216,7 +3409,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3225,7 +3418,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3234,7 +3427,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3243,7 +3436,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3252,7 +3445,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3261,7 +3454,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3270,7 +3463,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3279,7 +3472,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3288,7 +3481,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3297,7 +3490,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3306,7 +3499,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3315,7 +3508,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3324,7 +3517,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3333,7 +3526,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3342,7 +3535,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3351,7 +3544,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3360,7 +3553,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3369,7 +3562,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3378,7 +3571,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3387,7 +3580,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3396,7 +3589,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3405,7 +3598,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3414,7 +3607,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3423,7 +3616,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3432,7 +3625,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3441,7 +3634,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3450,7 +3643,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3459,7 +3652,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3468,7 +3661,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3477,7 +3670,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3486,7 +3679,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3495,7 +3688,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3504,7 +3697,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3513,7 +3706,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3522,7 +3715,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3531,7 +3724,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3540,7 +3733,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3549,7 +3742,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3558,7 +3751,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3567,7 +3760,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -3576,7 +3769,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -3585,7 +3778,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -3594,7 +3787,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -3603,7 +3796,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -3612,7 +3805,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -3621,7 +3814,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -3630,7 +3823,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -3639,7 +3832,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -3648,7 +3841,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -3657,7 +3850,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -3666,7 +3859,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -3675,7 +3868,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -3684,7 +3877,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -3693,7 +3886,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -3702,7 +3895,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -3711,7 +3904,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -3720,7 +3913,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -3729,7 +3922,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -3738,7 +3931,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -3747,7 +3940,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -3756,7 +3949,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -3765,7 +3958,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -3774,7 +3967,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -3783,7 +3976,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -3792,7 +3985,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -3801,7 +3994,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -3810,7 +4003,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -3819,7 +4012,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -3828,7 +4021,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -3837,7 +4030,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -3846,7 +4039,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -3855,7 +4048,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -3864,7 +4057,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -3873,7 +4066,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -3882,7 +4075,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -3891,7 +4084,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -3900,7 +4093,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -3909,7 +4102,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -3918,7 +4111,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -3927,7 +4120,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -3936,7 +4129,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -3945,7 +4138,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -3954,7 +4147,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -3963,7 +4156,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -3972,7 +4165,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -3981,7 +4174,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -3990,7 +4183,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -3999,7 +4192,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4008,7 +4201,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4017,7 +4210,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4026,7 +4219,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4035,7 +4228,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4044,7 +4237,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4053,7 +4246,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4062,7 +4255,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4071,7 +4264,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4080,7 +4273,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4089,7 +4282,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4098,7 +4291,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4107,7 +4300,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4116,7 +4309,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4125,7 +4318,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4134,7 +4327,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4143,7 +4336,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4152,7 +4345,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4161,7 +4354,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4170,7 +4363,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4179,7 +4372,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4188,7 +4381,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4197,7 +4390,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4206,7 +4399,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4215,7 +4408,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4224,7 +4417,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4233,7 +4426,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4242,7 +4435,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4251,7 +4444,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4260,7 +4453,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4269,7 +4462,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4278,7 +4471,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4287,7 +4480,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4296,7 +4489,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4305,7 +4498,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4314,7 +4507,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4323,7 +4516,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4332,7 +4525,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4341,7 +4534,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4350,7 +4543,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4359,7 +4552,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4368,7 +4561,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4377,7 +4570,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4386,7 +4579,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4395,7 +4588,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4404,7 +4597,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4413,7 +4606,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4422,7 +4615,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4431,7 +4624,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4440,7 +4633,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4449,7 +4642,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4458,7 +4651,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4467,7 +4660,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4476,7 +4669,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4485,7 +4678,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4494,7 +4687,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4503,7 +4696,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4512,7 +4705,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4521,7 +4714,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4530,7 +4723,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4539,7 +4732,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4548,7 +4741,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4557,7 +4750,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4566,7 +4759,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -4575,7 +4768,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -4584,7 +4777,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -4593,7 +4786,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -4602,7 +4795,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -4611,7 +4804,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -4620,7 +4813,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -4629,7 +4822,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -4638,7 +4831,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -4647,7 +4840,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -4656,7 +4849,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -4665,7 +4858,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -4674,7 +4867,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -4683,7 +4876,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -4692,7 +4885,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -4701,7 +4894,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -4710,7 +4903,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -4719,7 +4912,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -4728,7 +4921,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -4737,7 +4930,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -4746,7 +4939,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -4755,7 +4948,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -4764,7 +4957,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -4773,7 +4966,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -4782,7 +4975,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -4791,7 +4984,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -4800,7 +4993,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -4809,7 +5002,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -4818,7 +5011,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -4827,7 +5020,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -4836,7 +5029,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -4845,7 +5038,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -4854,7 +5047,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -4863,7 +5056,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -4872,7 +5065,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -4881,7 +5074,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -4890,7 +5083,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -4899,7 +5092,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -4908,7 +5101,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -4917,7 +5110,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -4926,7 +5119,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -4935,7 +5128,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -4944,7 +5137,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -4953,7 +5146,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -4962,7 +5155,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -4971,7 +5164,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -4980,7 +5173,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -4989,7 +5182,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -4998,7 +5191,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5007,7 +5200,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5016,7 +5209,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5034,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5042,13 +5235,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5062,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="Registration" sheetId="4" r:id="rId6"/>
     <sheet name="Clothes" sheetId="5" r:id="rId7"/>
     <sheet name="RandomData" sheetId="2" r:id="rId8"/>
+    <sheet name="Categories" sheetId="10" r:id="rId9"/>
+    <sheet name="Sub" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -297,6 +299,15 @@
   </si>
   <si>
     <t>ZAQ!cde3</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>beverages</t>
   </si>
 </sst>
 </file>
@@ -732,26 +743,26 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -767,12 +778,52 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -784,9 +835,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -811,13 +862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -846,9 +897,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -874,9 +925,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -908,13 +959,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
     </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -931,26 +982,26 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1044,10 +1095,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1067,15 +1118,15 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.109375" style="4"/>
-    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.109375" style="4"/>
+    <col min="1" max="5" width="11.140625" style="4"/>
+    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1098,7 +1149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1121,7 +1172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1144,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1167,7 +1218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1190,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1213,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1236,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1259,7 +1310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1282,7 +1333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1305,7 +1356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1328,7 +1379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1351,7 +1402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1374,7 +1425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1397,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1420,7 +1471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1443,7 +1494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1466,7 +1517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1489,7 +1540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1512,7 +1563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1535,7 +1586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1558,7 +1609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1581,7 +1632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1604,7 +1655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1627,7 +1678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1650,7 +1701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1673,7 +1724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1696,7 +1747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1719,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1742,7 +1793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1765,7 +1816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1788,7 +1839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1811,7 +1862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1834,7 +1885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1857,7 +1908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1880,7 +1931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1903,7 +1954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1926,7 +1977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1972,7 +2023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1995,7 +2046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2018,7 +2069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2041,7 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2064,7 +2115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2087,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2110,7 +2161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2133,7 +2184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2156,7 +2207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2179,7 +2230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2202,7 +2253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2225,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2248,7 +2299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2257,7 +2308,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2266,7 +2317,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2275,7 +2326,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2284,7 +2335,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2293,7 +2344,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2302,7 +2353,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2311,7 +2362,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2320,7 +2371,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2329,7 +2380,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2338,7 +2389,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2347,7 +2398,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2356,7 +2407,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2365,7 +2416,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2374,7 +2425,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2383,7 +2434,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2392,7 +2443,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2401,7 +2452,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2410,7 +2461,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2419,7 +2470,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2428,7 +2479,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2437,7 +2488,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2446,7 +2497,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2455,7 +2506,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2464,7 +2515,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2473,7 +2524,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2482,7 +2533,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2491,7 +2542,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2500,7 +2551,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2509,7 +2560,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2518,7 +2569,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2527,7 +2578,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2536,7 +2587,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2545,7 +2596,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2554,7 +2605,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2563,7 +2614,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2572,7 +2623,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2581,7 +2632,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2590,7 +2641,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2599,7 +2650,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2608,7 +2659,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2617,7 +2668,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2626,7 +2677,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2635,7 +2686,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2644,7 +2695,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2653,7 +2704,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2662,7 +2713,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2671,7 +2722,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2680,7 +2731,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2689,7 +2740,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2698,7 +2749,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2707,7 +2758,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2716,7 +2767,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2725,7 +2776,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2734,7 +2785,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2743,7 +2794,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2752,7 +2803,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2761,7 +2812,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2770,7 +2821,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2779,7 +2830,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2788,7 +2839,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2797,7 +2848,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2806,7 +2857,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2815,7 +2866,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2824,7 +2875,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2833,7 +2884,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2842,7 +2893,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2851,7 +2902,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2860,7 +2911,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2869,7 +2920,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2878,7 +2929,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2887,7 +2938,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2896,7 +2947,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2905,7 +2956,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -2914,7 +2965,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2923,7 +2974,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -2932,7 +2983,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2941,7 +2992,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2950,7 +3001,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2959,7 +3010,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2968,7 +3019,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2977,7 +3028,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2986,7 +3037,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2995,7 +3046,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3004,7 +3055,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3013,7 +3064,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3022,7 +3073,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3031,7 +3082,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3040,7 +3091,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3049,7 +3100,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3058,7 +3109,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3067,7 +3118,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3076,7 +3127,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3085,7 +3136,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3094,7 +3145,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3103,7 +3154,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3112,7 +3163,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3121,7 +3172,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3130,7 +3181,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3139,7 +3190,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3148,7 +3199,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3157,7 +3208,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3166,7 +3217,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3175,7 +3226,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3184,7 +3235,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3193,7 +3244,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3202,7 +3253,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3211,7 +3262,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3220,7 +3271,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3229,7 +3280,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3238,7 +3289,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3247,7 +3298,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3256,7 +3307,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3265,7 +3316,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3274,7 +3325,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3283,7 +3334,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3292,7 +3343,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3301,7 +3352,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3310,7 +3361,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3319,7 +3370,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3328,7 +3379,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3337,7 +3388,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3346,7 +3397,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3355,7 +3406,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3364,7 +3415,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3373,7 +3424,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3382,7 +3433,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3391,7 +3442,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3400,7 +3451,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3409,7 +3460,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3418,7 +3469,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3427,7 +3478,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3436,7 +3487,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3445,7 +3496,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3454,7 +3505,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3463,7 +3514,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3472,7 +3523,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3481,7 +3532,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3490,7 +3541,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3499,7 +3550,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3508,7 +3559,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3517,7 +3568,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3526,7 +3577,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3535,7 +3586,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3544,7 +3595,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3553,7 +3604,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3562,7 +3613,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3571,7 +3622,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3580,7 +3631,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3589,7 +3640,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3598,7 +3649,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3607,7 +3658,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3616,7 +3667,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3625,7 +3676,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3634,7 +3685,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3643,7 +3694,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3652,7 +3703,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3661,7 +3712,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3670,7 +3721,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3679,7 +3730,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3688,7 +3739,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3697,7 +3748,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3706,7 +3757,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3715,7 +3766,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3724,7 +3775,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3733,7 +3784,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3742,7 +3793,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3751,7 +3802,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3760,7 +3811,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -3769,7 +3820,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -3778,7 +3829,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -3787,7 +3838,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -3796,7 +3847,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -3805,7 +3856,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -3814,7 +3865,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -3823,7 +3874,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -3832,7 +3883,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -3841,7 +3892,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -3850,7 +3901,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -3859,7 +3910,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -3868,7 +3919,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -3877,7 +3928,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -3886,7 +3937,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -3895,7 +3946,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -3904,7 +3955,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -3913,7 +3964,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -3922,7 +3973,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -3931,7 +3982,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -3940,7 +3991,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -3949,7 +4000,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -3958,7 +4009,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -3967,7 +4018,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -3976,7 +4027,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -3985,7 +4036,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -3994,7 +4045,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4003,7 +4054,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4012,7 +4063,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4021,7 +4072,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4030,7 +4081,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4039,7 +4090,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4048,7 +4099,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4057,7 +4108,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4066,7 +4117,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4075,7 +4126,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4084,7 +4135,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4093,7 +4144,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4102,7 +4153,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4111,7 +4162,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4120,7 +4171,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4129,7 +4180,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4138,7 +4189,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4147,7 +4198,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4156,7 +4207,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4165,7 +4216,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4174,7 +4225,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4183,7 +4234,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4192,7 +4243,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4201,7 +4252,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4210,7 +4261,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4219,7 +4270,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4228,7 +4279,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4237,7 +4288,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4246,7 +4297,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4255,7 +4306,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4264,7 +4315,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4273,7 +4324,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4282,7 +4333,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4291,7 +4342,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4300,7 +4351,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4309,7 +4360,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4318,7 +4369,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4327,7 +4378,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4336,7 +4387,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4345,7 +4396,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4354,7 +4405,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4363,7 +4414,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4372,7 +4423,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4381,7 +4432,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4390,7 +4441,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4399,7 +4450,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4408,7 +4459,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4417,7 +4468,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4426,7 +4477,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4435,7 +4486,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4444,7 +4495,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4453,7 +4504,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4462,7 +4513,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4471,7 +4522,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4480,7 +4531,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4489,7 +4540,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4498,7 +4549,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4507,7 +4558,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4516,7 +4567,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4525,7 +4576,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4534,7 +4585,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4543,7 +4594,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4552,7 +4603,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4561,7 +4612,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4570,7 +4621,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4579,7 +4630,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4588,7 +4639,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4597,7 +4648,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4606,7 +4657,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4615,7 +4666,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4624,7 +4675,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4633,7 +4684,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4642,7 +4693,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4651,7 +4702,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4660,7 +4711,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4669,7 +4720,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4678,7 +4729,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4687,7 +4738,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4696,7 +4747,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4705,7 +4756,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4714,7 +4765,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4723,7 +4774,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4732,7 +4783,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4741,7 +4792,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4750,7 +4801,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4759,7 +4810,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -4768,7 +4819,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -4777,7 +4828,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -4786,7 +4837,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -4795,7 +4846,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -4804,7 +4855,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -4813,7 +4864,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -4822,7 +4873,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -4831,7 +4882,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -4840,7 +4891,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -4849,7 +4900,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -4858,7 +4909,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -4867,7 +4918,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -4876,7 +4927,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -4885,7 +4936,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -4894,7 +4945,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -4903,7 +4954,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -4912,7 +4963,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -4921,7 +4972,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -4930,7 +4981,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -4939,7 +4990,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -4948,7 +4999,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -4957,7 +5008,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -4966,7 +5017,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -4975,7 +5026,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -4984,7 +5035,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -4993,7 +5044,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5002,7 +5053,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5011,7 +5062,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5020,7 +5071,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5029,7 +5080,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5038,7 +5089,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5047,7 +5098,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5056,7 +5107,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5065,7 +5116,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5074,7 +5125,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5083,7 +5134,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5092,7 +5143,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5101,7 +5152,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5110,7 +5161,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5119,7 +5170,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5128,7 +5179,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5137,7 +5188,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5146,7 +5197,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5155,7 +5206,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5164,7 +5215,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5173,7 +5224,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5182,7 +5233,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5191,7 +5242,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5200,7 +5251,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5209,7 +5260,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5235,13 +5286,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5255,7 +5306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5267,6 +5318,40 @@
       </c>
       <c r="D2">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="RandomData" sheetId="2" r:id="rId8"/>
     <sheet name="Categories" sheetId="10" r:id="rId9"/>
     <sheet name="Sub" sheetId="11" r:id="rId10"/>
+    <sheet name="flash" sheetId="12" r:id="rId11"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
   <si>
     <t>Username</t>
   </si>
@@ -308,13 +310,81 @@
   </si>
   <si>
     <t>beverages</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>04-16-2016unt 01h50:56</t>
+  </si>
+  <si>
+    <r>
+      <t>04-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2016 01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>h39:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>code2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +409,25 @@
     <font>
       <b/>
       <sz val="9.6"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF008080"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -398,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +510,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -824,6 +922,89 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="12">
+        <v>42475</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -290,20 +290,29 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Thank you</t>
-  </si>
-  <si>
     <t>h0tr1ngG</t>
   </si>
   <si>
     <t>ZAQ!cde3</t>
+  </si>
+  <si>
+    <t>surAddress</t>
+  </si>
+  <si>
+    <t>surName</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cairo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +338,12 @@
       <b/>
       <sz val="9.6"/>
       <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -387,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +425,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +877,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -868,17 +887,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -889,8 +943,8 @@
       <c r="D2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E2">
-        <v>12</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>566</v>
@@ -904,14 +958,11 @@
       <c r="I2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
     </row>
     <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -920,6 +971,7 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sub" sheetId="11" r:id="rId10"/>
     <sheet name="flash" sheetId="12" r:id="rId11"/>
     <sheet name="Coupon" sheetId="13" r:id="rId12"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
   <si>
     <t>Username</t>
   </si>
@@ -378,6 +379,37 @@
   </si>
   <si>
     <t>code2</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>senderEmail</t>
+  </si>
+  <si>
+    <t>RecName</t>
+  </si>
+  <si>
+    <t>RecEmails</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Chris@integrant.com'</t>
+  </si>
+  <si>
+    <t>Jihad</t>
+  </si>
+  <si>
+    <t>jMohamed@integrant.com'</t>
+  </si>
+  <si>
+    <t>Hello
+Hope Every thing is Ok</t>
   </si>
 </sst>
 </file>
@@ -487,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,6 +550,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,26 +876,26 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -876,7 +911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -893,12 +928,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -909,7 +944,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,13 +968,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -950,7 +985,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>50</v>
       </c>
@@ -971,16 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1005,6 +1040,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1016,9 +1111,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -1047,9 +1142,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -1078,9 +1173,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1106,9 +1201,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1140,13 +1235,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
     </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1163,26 +1258,26 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1276,10 +1371,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1299,15 +1394,15 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="5" width="11.109375" style="4"/>
+    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1330,7 +1425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1353,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1376,7 +1471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1399,7 +1494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1422,7 +1517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1445,7 +1540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1468,7 +1563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1491,7 +1586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1514,7 +1609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1537,7 +1632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1560,7 +1655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1583,7 +1678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1606,7 +1701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1629,7 +1724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1652,7 +1747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1675,7 +1770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1698,7 +1793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1721,7 +1816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1744,7 +1839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1767,7 +1862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1790,7 +1885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1813,7 +1908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1836,7 +1931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1859,7 +1954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1882,7 +1977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1905,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1928,7 +2023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1951,7 +2046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1974,7 +2069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1997,7 +2092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2020,7 +2115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2043,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2066,7 +2161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2089,7 +2184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2112,7 +2207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2135,7 +2230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2158,7 +2253,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2181,7 +2276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2204,7 +2299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2227,7 +2322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2250,7 +2345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2273,7 +2368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2296,7 +2391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2319,7 +2414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2342,7 +2437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2365,7 +2460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2388,7 +2483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2411,7 +2506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2434,7 +2529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2457,7 +2552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2480,7 +2575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2489,7 +2584,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2498,7 +2593,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2507,7 +2602,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2516,7 +2611,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2525,7 +2620,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2534,7 +2629,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2543,7 +2638,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2552,7 +2647,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2561,7 +2656,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2570,7 +2665,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2579,7 +2674,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2588,7 +2683,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2597,7 +2692,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2606,7 +2701,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2615,7 +2710,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2624,7 +2719,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2633,7 +2728,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2642,7 +2737,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2651,7 +2746,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2660,7 +2755,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2669,7 +2764,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2678,7 +2773,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2687,7 +2782,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2696,7 +2791,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2705,7 +2800,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2714,7 +2809,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2723,7 +2818,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2732,7 +2827,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2741,7 +2836,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2750,7 +2845,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2759,7 +2854,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2768,7 +2863,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2777,7 +2872,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2786,7 +2881,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2795,7 +2890,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2804,7 +2899,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2813,7 +2908,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2822,7 +2917,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2831,7 +2926,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2840,7 +2935,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2849,7 +2944,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2858,7 +2953,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2867,7 +2962,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2876,7 +2971,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2885,7 +2980,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2894,7 +2989,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2903,7 +2998,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2912,7 +3007,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2921,7 +3016,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2930,7 +3025,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2939,7 +3034,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2948,7 +3043,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2957,7 +3052,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2966,7 +3061,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2975,7 +3070,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2984,7 +3079,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2993,7 +3088,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3002,7 +3097,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3011,7 +3106,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3020,7 +3115,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3029,7 +3124,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3038,7 +3133,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3047,7 +3142,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3056,7 +3151,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3065,7 +3160,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3074,7 +3169,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3083,7 +3178,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3092,7 +3187,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3101,7 +3196,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3110,7 +3205,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3119,7 +3214,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3128,7 +3223,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3137,7 +3232,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3146,7 +3241,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3155,7 +3250,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3164,7 +3259,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3173,7 +3268,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3182,7 +3277,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3191,7 +3286,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3200,7 +3295,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3209,7 +3304,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3218,7 +3313,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3227,7 +3322,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3236,7 +3331,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3245,7 +3340,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3254,7 +3349,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3263,7 +3358,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3272,7 +3367,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3281,7 +3376,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3290,7 +3385,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3299,7 +3394,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3308,7 +3403,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3317,7 +3412,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3326,7 +3421,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3335,7 +3430,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3344,7 +3439,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3353,7 +3448,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3362,7 +3457,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3371,7 +3466,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3380,7 +3475,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3389,7 +3484,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3398,7 +3493,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3407,7 +3502,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3416,7 +3511,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3425,7 +3520,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3434,7 +3529,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3443,7 +3538,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3452,7 +3547,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3461,7 +3556,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3470,7 +3565,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3479,7 +3574,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3488,7 +3583,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3497,7 +3592,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3506,7 +3601,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3515,7 +3610,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3524,7 +3619,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3533,7 +3628,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3542,7 +3637,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3551,7 +3646,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3560,7 +3655,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3569,7 +3664,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3578,7 +3673,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3587,7 +3682,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3596,7 +3691,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3605,7 +3700,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3614,7 +3709,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3623,7 +3718,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3632,7 +3727,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3641,7 +3736,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3650,7 +3745,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3659,7 +3754,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3668,7 +3763,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3677,7 +3772,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3686,7 +3781,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3695,7 +3790,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3704,7 +3799,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3713,7 +3808,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3722,7 +3817,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3731,7 +3826,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3740,7 +3835,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3749,7 +3844,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3758,7 +3853,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3767,7 +3862,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3776,7 +3871,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3785,7 +3880,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3794,7 +3889,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3803,7 +3898,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3812,7 +3907,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3821,7 +3916,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3830,7 +3925,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3839,7 +3934,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3848,7 +3943,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3857,7 +3952,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3866,7 +3961,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3875,7 +3970,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3884,7 +3979,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3893,7 +3988,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3902,7 +3997,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3911,7 +4006,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3920,7 +4015,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3929,7 +4024,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3938,7 +4033,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3947,7 +4042,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3956,7 +4051,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3965,7 +4060,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3974,7 +4069,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3983,7 +4078,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3992,7 +4087,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4001,7 +4096,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4010,7 +4105,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4019,7 +4114,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4028,7 +4123,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4037,7 +4132,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4046,7 +4141,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4055,7 +4150,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4064,7 +4159,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4073,7 +4168,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4082,7 +4177,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4091,7 +4186,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4100,7 +4195,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4109,7 +4204,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4118,7 +4213,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4127,7 +4222,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4136,7 +4231,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4145,7 +4240,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4154,7 +4249,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4163,7 +4258,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4172,7 +4267,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4181,7 +4276,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4190,7 +4285,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4199,7 +4294,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4208,7 +4303,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4217,7 +4312,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4226,7 +4321,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4235,7 +4330,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4244,7 +4339,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4253,7 +4348,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4262,7 +4357,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4271,7 +4366,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4280,7 +4375,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4289,7 +4384,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4298,7 +4393,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4307,7 +4402,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4316,7 +4411,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4325,7 +4420,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4334,7 +4429,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4343,7 +4438,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4352,7 +4447,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4361,7 +4456,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4370,7 +4465,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4379,7 +4474,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4388,7 +4483,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4397,7 +4492,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4406,7 +4501,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4415,7 +4510,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4424,7 +4519,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4433,7 +4528,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4442,7 +4537,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4451,7 +4546,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4460,7 +4555,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4469,7 +4564,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4478,7 +4573,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4487,7 +4582,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4496,7 +4591,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4505,7 +4600,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4514,7 +4609,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4523,7 +4618,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4532,7 +4627,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4541,7 +4636,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4550,7 +4645,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4559,7 +4654,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4568,7 +4663,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4577,7 +4672,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4586,7 +4681,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4595,7 +4690,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4604,7 +4699,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4613,7 +4708,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4622,7 +4717,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4631,7 +4726,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4640,7 +4735,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4649,7 +4744,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4658,7 +4753,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4667,7 +4762,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4676,7 +4771,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4685,7 +4780,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4694,7 +4789,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4703,7 +4798,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4712,7 +4807,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4721,7 +4816,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4730,7 +4825,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4739,7 +4834,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4748,7 +4843,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4757,7 +4852,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4766,7 +4861,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4775,7 +4870,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4784,7 +4879,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4793,7 +4888,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4802,7 +4897,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4811,7 +4906,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4820,7 +4915,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4829,7 +4924,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4838,7 +4933,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4847,7 +4942,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4856,7 +4951,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4865,7 +4960,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4874,7 +4969,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4883,7 +4978,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4892,7 +4987,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4901,7 +4996,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4910,7 +5005,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4919,7 +5014,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4928,7 +5023,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4937,7 +5032,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4946,7 +5041,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4955,7 +5050,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4964,7 +5059,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4973,7 +5068,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4982,7 +5077,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4991,7 +5086,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5000,7 +5095,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5009,7 +5104,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5018,7 +5113,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5027,7 +5122,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5036,7 +5131,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5045,7 +5140,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5054,7 +5149,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5063,7 +5158,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5072,7 +5167,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5081,7 +5176,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5090,7 +5185,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5099,7 +5194,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5108,7 +5203,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5117,7 +5212,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5126,7 +5221,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5135,7 +5230,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5144,7 +5239,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5153,7 +5248,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5162,7 +5257,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5171,7 +5266,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5180,7 +5275,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5189,7 +5284,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5198,7 +5293,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5207,7 +5302,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5216,7 +5311,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5225,7 +5320,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5234,7 +5329,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5243,7 +5338,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5252,7 +5347,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5261,7 +5356,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5270,7 +5365,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5279,7 +5374,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5288,7 +5383,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5297,7 +5392,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5306,7 +5401,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5315,7 +5410,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5324,7 +5419,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5333,7 +5428,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5342,7 +5437,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5351,7 +5446,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5360,7 +5455,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5369,7 +5464,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5378,7 +5473,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5387,7 +5482,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5396,7 +5491,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5405,7 +5500,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5414,7 +5509,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5423,7 +5518,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5432,7 +5527,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5441,7 +5536,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5467,13 +5562,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5514,12 +5609,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5527,7 +5622,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sub" sheetId="11" r:id="rId10"/>
     <sheet name="flash" sheetId="12" r:id="rId11"/>
     <sheet name="Coupon" sheetId="13" r:id="rId12"/>
+    <sheet name="Search" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
   <si>
     <t>Username</t>
   </si>
@@ -378,6 +379,18 @@
   </si>
   <si>
     <t>code2</t>
+  </si>
+  <si>
+    <t>trouser</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -841,26 +854,26 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -876,7 +889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -893,12 +906,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -909,7 +922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,13 +946,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -950,7 +963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>50</v>
       </c>
@@ -971,16 +984,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -991,7 +1004,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1000,6 +1013,38 @@
       </c>
       <c r="C2">
         <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1016,9 +1061,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -1047,9 +1092,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -1078,9 +1123,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1102,13 +1147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1140,13 +1185,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
     </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1163,26 +1208,26 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1276,10 +1321,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1299,15 +1344,15 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="5" width="11.109375" style="4"/>
+    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1330,7 +1375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1353,7 +1398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1376,7 +1421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1399,7 +1444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1422,7 +1467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1445,7 +1490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1468,7 +1513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1491,7 +1536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1514,7 +1559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1537,7 +1582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1560,7 +1605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1583,7 +1628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1606,7 +1651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1629,7 +1674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1652,7 +1697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1675,7 +1720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1698,7 +1743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1721,7 +1766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1744,7 +1789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1767,7 +1812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1790,7 +1835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1813,7 +1858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1836,7 +1881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1882,7 +1927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1905,7 +1950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1928,7 +1973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1951,7 +1996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1974,7 +2019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1997,7 +2042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2020,7 +2065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2043,7 +2088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2066,7 +2111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2089,7 +2134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2112,7 +2157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2135,7 +2180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2158,7 +2203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2181,7 +2226,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2204,7 +2249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2227,7 +2272,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2250,7 +2295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2273,7 +2318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2296,7 +2341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2319,7 +2364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2342,7 +2387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2365,7 +2410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2388,7 +2433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2411,7 +2456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2457,7 +2502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2480,7 +2525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2489,7 +2534,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2498,7 +2543,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2507,7 +2552,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2516,7 +2561,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2525,7 +2570,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2534,7 +2579,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2543,7 +2588,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2552,7 +2597,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2561,7 +2606,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2570,7 +2615,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2579,7 +2624,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2588,7 +2633,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2597,7 +2642,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2606,7 +2651,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2615,7 +2660,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2624,7 +2669,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2633,7 +2678,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2642,7 +2687,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2651,7 +2696,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2660,7 +2705,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2669,7 +2714,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2678,7 +2723,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2687,7 +2732,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2696,7 +2741,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2705,7 +2750,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2714,7 +2759,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2723,7 +2768,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2732,7 +2777,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2741,7 +2786,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2750,7 +2795,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2759,7 +2804,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2768,7 +2813,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2777,7 +2822,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2786,7 +2831,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2795,7 +2840,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2804,7 +2849,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2813,7 +2858,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2822,7 +2867,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2831,7 +2876,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2840,7 +2885,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2849,7 +2894,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2858,7 +2903,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2867,7 +2912,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2876,7 +2921,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2885,7 +2930,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2894,7 +2939,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2903,7 +2948,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2912,7 +2957,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2921,7 +2966,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2930,7 +2975,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2939,7 +2984,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2948,7 +2993,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2957,7 +3002,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2966,7 +3011,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2975,7 +3020,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2984,7 +3029,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2993,7 +3038,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3002,7 +3047,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3011,7 +3056,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3020,7 +3065,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3029,7 +3074,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3038,7 +3083,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3047,7 +3092,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3056,7 +3101,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3065,7 +3110,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3074,7 +3119,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3083,7 +3128,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3092,7 +3137,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3101,7 +3146,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3110,7 +3155,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3119,7 +3164,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3128,7 +3173,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3137,7 +3182,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3146,7 +3191,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3155,7 +3200,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3164,7 +3209,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3173,7 +3218,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3182,7 +3227,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3191,7 +3236,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3200,7 +3245,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3209,7 +3254,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3218,7 +3263,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3227,7 +3272,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3236,7 +3281,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3245,7 +3290,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3254,7 +3299,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3263,7 +3308,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3272,7 +3317,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3281,7 +3326,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3290,7 +3335,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3299,7 +3344,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3308,7 +3353,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3317,7 +3362,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3326,7 +3371,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3335,7 +3380,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3344,7 +3389,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3353,7 +3398,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3362,7 +3407,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3371,7 +3416,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3380,7 +3425,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3389,7 +3434,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3398,7 +3443,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3407,7 +3452,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3416,7 +3461,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3425,7 +3470,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3434,7 +3479,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3443,7 +3488,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3452,7 +3497,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3461,7 +3506,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3470,7 +3515,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3479,7 +3524,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3488,7 +3533,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3497,7 +3542,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3506,7 +3551,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3515,7 +3560,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3524,7 +3569,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3533,7 +3578,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3542,7 +3587,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3551,7 +3596,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3560,7 +3605,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3569,7 +3614,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3578,7 +3623,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3587,7 +3632,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3596,7 +3641,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3605,7 +3650,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3614,7 +3659,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3623,7 +3668,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3632,7 +3677,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3641,7 +3686,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3650,7 +3695,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3659,7 +3704,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3668,7 +3713,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3677,7 +3722,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3686,7 +3731,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3695,7 +3740,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3704,7 +3749,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3713,7 +3758,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3722,7 +3767,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3731,7 +3776,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3740,7 +3785,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3749,7 +3794,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3758,7 +3803,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3767,7 +3812,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3776,7 +3821,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3785,7 +3830,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3794,7 +3839,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3803,7 +3848,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3812,7 +3857,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3821,7 +3866,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3830,7 +3875,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3839,7 +3884,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3848,7 +3893,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3857,7 +3902,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3866,7 +3911,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3875,7 +3920,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3884,7 +3929,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3893,7 +3938,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -3902,7 +3947,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -3911,7 +3956,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -3920,7 +3965,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -3929,7 +3974,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -3938,7 +3983,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -3947,7 +3992,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -3956,7 +4001,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -3965,7 +4010,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -3974,7 +4019,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -3983,7 +4028,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -3992,7 +4037,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4001,7 +4046,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4010,7 +4055,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4019,7 +4064,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4028,7 +4073,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4037,7 +4082,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4046,7 +4091,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4055,7 +4100,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4064,7 +4109,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4073,7 +4118,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4082,7 +4127,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4091,7 +4136,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4100,7 +4145,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4109,7 +4154,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4118,7 +4163,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4127,7 +4172,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4136,7 +4181,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4145,7 +4190,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4154,7 +4199,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4163,7 +4208,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4172,7 +4217,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4181,7 +4226,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4190,7 +4235,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4199,7 +4244,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4208,7 +4253,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4217,7 +4262,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4226,7 +4271,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4235,7 +4280,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4244,7 +4289,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4253,7 +4298,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4262,7 +4307,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4271,7 +4316,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4280,7 +4325,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4289,7 +4334,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4298,7 +4343,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4307,7 +4352,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4316,7 +4361,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4325,7 +4370,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4334,7 +4379,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4343,7 +4388,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4352,7 +4397,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4361,7 +4406,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4370,7 +4415,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4379,7 +4424,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4388,7 +4433,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4397,7 +4442,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4406,7 +4451,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4415,7 +4460,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4424,7 +4469,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4433,7 +4478,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4442,7 +4487,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4451,7 +4496,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4460,7 +4505,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4469,7 +4514,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4478,7 +4523,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4487,7 +4532,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4496,7 +4541,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4505,7 +4550,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4514,7 +4559,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4523,7 +4568,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4532,7 +4577,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4541,7 +4586,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4550,7 +4595,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4559,7 +4604,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4568,7 +4613,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4577,7 +4622,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4586,7 +4631,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4595,7 +4640,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4604,7 +4649,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4613,7 +4658,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4622,7 +4667,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4631,7 +4676,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4640,7 +4685,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4649,7 +4694,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4658,7 +4703,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4667,7 +4712,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4676,7 +4721,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4685,7 +4730,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4694,7 +4739,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4703,7 +4748,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4712,7 +4757,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4721,7 +4766,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4730,7 +4775,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4739,7 +4784,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4748,7 +4793,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4757,7 +4802,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4766,7 +4811,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4775,7 +4820,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4784,7 +4829,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4793,7 +4838,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4802,7 +4847,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4811,7 +4856,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4820,7 +4865,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4829,7 +4874,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4838,7 +4883,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4847,7 +4892,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4856,7 +4901,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4865,7 +4910,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4874,7 +4919,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4883,7 +4928,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4892,7 +4937,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4901,7 +4946,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4910,7 +4955,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4919,7 +4964,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4928,7 +4973,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4937,7 +4982,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4946,7 +4991,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4955,7 +5000,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4964,7 +5009,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4973,7 +5018,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4982,7 +5027,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4991,7 +5036,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5000,7 +5045,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5009,7 +5054,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5018,7 +5063,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5027,7 +5072,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5036,7 +5081,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5045,7 +5090,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5054,7 +5099,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5063,7 +5108,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5072,7 +5117,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5081,7 +5126,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5090,7 +5135,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5099,7 +5144,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5108,7 +5153,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5117,7 +5162,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5126,7 +5171,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5135,7 +5180,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5144,7 +5189,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5153,7 +5198,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5162,7 +5207,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5171,7 +5216,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5180,7 +5225,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5189,7 +5234,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5198,7 +5243,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5207,7 +5252,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5216,7 +5261,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5225,7 +5270,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5234,7 +5279,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5243,7 +5288,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5252,7 +5297,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5261,7 +5306,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5270,7 +5315,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5279,7 +5324,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5288,7 +5333,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5297,7 +5342,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5306,7 +5351,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5315,7 +5360,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5324,7 +5369,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5333,7 +5378,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5342,7 +5387,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5351,7 +5396,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5360,7 +5405,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5369,7 +5414,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5378,7 +5423,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5387,7 +5432,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5396,7 +5441,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5405,7 +5450,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5414,7 +5459,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5423,7 +5468,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5432,7 +5477,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5441,7 +5486,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5467,13 +5512,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5514,12 +5559,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5527,7 +5572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sub" sheetId="11" r:id="rId10"/>
     <sheet name="flash" sheetId="12" r:id="rId11"/>
     <sheet name="Coupon" sheetId="13" r:id="rId12"/>
-    <sheet name="Search" sheetId="14" r:id="rId13"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId13"/>
+    <sheet name="Products" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="114">
   <si>
     <t>Username</t>
   </si>
@@ -381,16 +382,47 @@
     <t>code2</t>
   </si>
   <si>
-    <t>trouser</t>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>senderEmail</t>
+  </si>
+  <si>
+    <t>RecName</t>
+  </si>
+  <si>
+    <t>RecEmails</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Jihad</t>
+  </si>
+  <si>
+    <t>Hello
+Hope Every thing is Ok</t>
+  </si>
+  <si>
+    <t>jMohamed@integrant.com</t>
+  </si>
+  <si>
+    <t>Chris@integrant.com</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>TROUSER</t>
   </si>
   <si>
     <t>Clothing</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>category</t>
   </si>
 </sst>
 </file>
@@ -500,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,6 +563,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,7 +1020,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,33 +1058,96 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>101</v>
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1148,7 +1246,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5556,7 +5654,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -419,10 +419,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>TROUSER</t>
-  </si>
-  <si>
     <t>Clothing</t>
+  </si>
+  <si>
+    <t>trouser</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,33 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
     <sheet name="LoginInvalid" sheetId="7" r:id="rId2"/>
-    <sheet name="LoginBlankPW" sheetId="8" r:id="rId3"/>
-    <sheet name="LoginBlankUN" sheetId="9" r:id="rId4"/>
-    <sheet name="BillingAddress" sheetId="6" r:id="rId5"/>
-    <sheet name="Registration" sheetId="4" r:id="rId6"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId7"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId8"/>
-    <sheet name="Categories" sheetId="10" r:id="rId9"/>
-    <sheet name="Sub" sheetId="11" r:id="rId10"/>
-    <sheet name="flash" sheetId="12" r:id="rId11"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId12"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId13"/>
-    <sheet name="Products" sheetId="15" r:id="rId14"/>
+    <sheet name="BillingAddress" sheetId="6" r:id="rId3"/>
+    <sheet name="Registration" sheetId="4" r:id="rId4"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId5"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId6"/>
+    <sheet name="Categories" sheetId="10" r:id="rId7"/>
+    <sheet name="Sub" sheetId="11" r:id="rId8"/>
+    <sheet name="flash" sheetId="12" r:id="rId9"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId10"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
+    <sheet name="Products" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Clothes!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="117">
   <si>
     <t>Username</t>
   </si>
@@ -423,6 +421,15 @@
   </si>
   <si>
     <t>trouser</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Bad email or password.</t>
+  </si>
+  <si>
+    <t>Please type in your password.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,6 +571,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -886,29 +895,29 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -924,7 +933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -938,75 +947,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="11">
+        <v>42475</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1015,48 +983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="12">
-        <v>42475</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1064,16 +991,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1090,20 +1017,20 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1116,21 +1043,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1138,7 +1065,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1153,95 +1080,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
@@ -1249,9 +1149,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1161,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E2">
@@ -1283,13 +1183,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1298,7 +1198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1306,26 +1206,26 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1419,10 +1319,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1434,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
@@ -1442,15 +1342,15 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.109375" style="4"/>
-    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.109375" style="4"/>
+    <col min="1" max="5" width="11.140625" style="4"/>
+    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1473,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1496,7 +1396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1519,7 +1419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1542,7 +1442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1565,7 +1465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1588,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1611,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1634,7 +1534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1657,7 +1557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1680,7 +1580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1703,7 +1603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1726,7 +1626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1749,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1772,7 +1672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1795,7 +1695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1818,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1841,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1864,7 +1764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1887,7 +1787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1910,7 +1810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1933,7 +1833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1956,7 +1856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1979,7 +1879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2002,7 +1902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2025,7 +1925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2048,7 +1948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2071,7 +1971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2094,7 +1994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2117,7 +2017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2140,7 +2040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2163,7 +2063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2186,7 +2086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2209,7 +2109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2232,7 +2132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2255,7 +2155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2278,7 +2178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2301,7 +2201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2324,7 +2224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2347,7 +2247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2370,7 +2270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2393,7 +2293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2416,7 +2316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2439,7 +2339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2462,7 +2362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2485,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2508,7 +2408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2531,7 +2431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2554,7 +2454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2577,7 +2477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2600,7 +2500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2623,7 +2523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2632,7 +2532,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2641,7 +2541,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2650,7 +2550,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2659,7 +2559,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2668,7 +2568,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2677,7 +2577,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2686,7 +2586,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2695,7 +2595,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2704,7 +2604,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2713,7 +2613,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2722,7 +2622,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2731,7 +2631,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2740,7 +2640,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2749,7 +2649,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2758,7 +2658,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2767,7 +2667,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2776,7 +2676,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2785,7 +2685,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2794,7 +2694,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2803,7 +2703,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2812,7 +2712,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2821,7 +2721,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2830,7 +2730,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2839,7 +2739,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2848,7 +2748,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2857,7 +2757,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2866,7 +2766,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2875,7 +2775,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2884,7 +2784,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2893,7 +2793,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2902,7 +2802,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2911,7 +2811,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2920,7 +2820,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2929,7 +2829,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2938,7 +2838,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2947,7 +2847,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2956,7 +2856,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2965,7 +2865,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2974,7 +2874,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2983,7 +2883,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2992,7 +2892,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3001,7 +2901,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3010,7 +2910,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3019,7 +2919,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3028,7 +2928,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3037,7 +2937,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3046,7 +2946,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3055,7 +2955,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3064,7 +2964,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3073,7 +2973,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3082,7 +2982,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3091,7 +2991,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3100,7 +3000,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3109,7 +3009,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3118,7 +3018,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3127,7 +3027,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3136,7 +3036,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3145,7 +3045,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3154,7 +3054,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3163,7 +3063,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3172,7 +3072,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3181,7 +3081,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3190,7 +3090,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3199,7 +3099,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3208,7 +3108,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3217,7 +3117,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3226,7 +3126,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3235,7 +3135,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3244,7 +3144,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3253,7 +3153,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3262,7 +3162,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3271,7 +3171,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3280,7 +3180,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3289,7 +3189,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3298,7 +3198,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3307,7 +3207,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3316,7 +3216,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3325,7 +3225,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3334,7 +3234,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3343,7 +3243,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3352,7 +3252,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3361,7 +3261,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3370,7 +3270,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3379,7 +3279,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3388,7 +3288,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3397,7 +3297,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3406,7 +3306,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3415,7 +3315,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3424,7 +3324,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3433,7 +3333,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3442,7 +3342,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3451,7 +3351,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3460,7 +3360,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3469,7 +3369,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3478,7 +3378,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3487,7 +3387,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3496,7 +3396,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3505,7 +3405,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3514,7 +3414,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3523,7 +3423,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3532,7 +3432,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3541,7 +3441,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3550,7 +3450,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3559,7 +3459,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3568,7 +3468,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3577,7 +3477,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3586,7 +3486,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3595,7 +3495,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3604,7 +3504,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3613,7 +3513,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3622,7 +3522,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3631,7 +3531,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3640,7 +3540,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3649,7 +3549,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3658,7 +3558,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3667,7 +3567,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3676,7 +3576,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3685,7 +3585,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3694,7 +3594,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3703,7 +3603,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3712,7 +3612,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3721,7 +3621,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3730,7 +3630,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3739,7 +3639,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3748,7 +3648,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3757,7 +3657,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3766,7 +3666,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3775,7 +3675,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3784,7 +3684,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3793,7 +3693,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3802,7 +3702,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3811,7 +3711,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3820,7 +3720,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3829,7 +3729,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3838,7 +3738,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3847,7 +3747,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3856,7 +3756,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3865,7 +3765,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3874,7 +3774,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3883,7 +3783,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3892,7 +3792,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3901,7 +3801,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3910,7 +3810,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3919,7 +3819,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3928,7 +3828,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3937,7 +3837,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3946,7 +3846,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3955,7 +3855,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3964,7 +3864,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3973,7 +3873,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3982,7 +3882,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3991,7 +3891,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -4000,7 +3900,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -4009,7 +3909,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -4018,7 +3918,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -4027,7 +3927,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -4036,7 +3936,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4045,7 +3945,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4054,7 +3954,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4063,7 +3963,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4072,7 +3972,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4081,7 +3981,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4090,7 +3990,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4099,7 +3999,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4108,7 +4008,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4117,7 +4017,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4126,7 +4026,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4135,7 +4035,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4144,7 +4044,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4153,7 +4053,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4162,7 +4062,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4171,7 +4071,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4180,7 +4080,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4189,7 +4089,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4198,7 +4098,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4207,7 +4107,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4216,7 +4116,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4225,7 +4125,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4234,7 +4134,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4243,7 +4143,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4252,7 +4152,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4261,7 +4161,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4270,7 +4170,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4279,7 +4179,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4288,7 +4188,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4297,7 +4197,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4306,7 +4206,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4315,7 +4215,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4324,7 +4224,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4333,7 +4233,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4342,7 +4242,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4351,7 +4251,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4360,7 +4260,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4369,7 +4269,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4378,7 +4278,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4387,7 +4287,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4396,7 +4296,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4405,7 +4305,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4414,7 +4314,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4423,7 +4323,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4432,7 +4332,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4441,7 +4341,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4450,7 +4350,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4459,7 +4359,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4468,7 +4368,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4477,7 +4377,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4486,7 +4386,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4495,7 +4395,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4504,7 +4404,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4513,7 +4413,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4522,7 +4422,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4531,7 +4431,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4540,7 +4440,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4549,7 +4449,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4558,7 +4458,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4567,7 +4467,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4576,7 +4476,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4585,7 +4485,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4594,7 +4494,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4603,7 +4503,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4612,7 +4512,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4621,7 +4521,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4630,7 +4530,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4639,7 +4539,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4648,7 +4548,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4657,7 +4557,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4666,7 +4566,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4675,7 +4575,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4684,7 +4584,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4693,7 +4593,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4702,7 +4602,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4711,7 +4611,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4720,7 +4620,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4729,7 +4629,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4738,7 +4638,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4747,7 +4647,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4756,7 +4656,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4765,7 +4665,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4774,7 +4674,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4783,7 +4683,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4792,7 +4692,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4801,7 +4701,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4810,7 +4710,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4819,7 +4719,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4828,7 +4728,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4837,7 +4737,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4846,7 +4746,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4855,7 +4755,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4864,7 +4764,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4873,7 +4773,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4882,7 +4782,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4891,7 +4791,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4900,7 +4800,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4909,7 +4809,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4918,7 +4818,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4927,7 +4827,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4936,7 +4836,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4945,7 +4845,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4954,7 +4854,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4963,7 +4863,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4972,7 +4872,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4981,7 +4881,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4990,7 +4890,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4999,7 +4899,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -5008,7 +4908,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -5017,7 +4917,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -5026,7 +4926,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -5035,7 +4935,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -5044,7 +4944,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -5053,7 +4953,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -5062,7 +4962,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -5071,7 +4971,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -5080,7 +4980,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -5089,7 +4989,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -5098,7 +4998,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -5107,7 +5007,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -5116,7 +5016,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -5125,7 +5025,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -5134,7 +5034,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5143,7 +5043,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5152,7 +5052,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5161,7 +5061,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5170,7 +5070,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5179,7 +5079,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5188,7 +5088,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5197,7 +5097,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5206,7 +5106,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5215,7 +5115,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5224,7 +5124,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5233,7 +5133,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5242,7 +5142,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5251,7 +5151,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5260,7 +5160,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5269,7 +5169,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5278,7 +5178,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5287,7 +5187,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5296,7 +5196,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5305,7 +5205,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5314,7 +5214,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5323,7 +5223,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5332,7 +5232,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5341,7 +5241,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5350,7 +5250,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5359,7 +5259,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5368,7 +5268,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5377,7 +5277,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5386,7 +5286,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5395,7 +5295,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5404,7 +5304,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5413,7 +5313,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5422,7 +5322,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5431,7 +5331,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5440,7 +5340,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5449,7 +5349,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5458,7 +5358,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5467,7 +5367,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5476,7 +5376,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5485,7 +5385,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5494,7 +5394,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5503,7 +5403,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5512,7 +5412,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5521,7 +5421,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5530,7 +5430,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5539,7 +5439,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5548,7 +5448,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5557,7 +5457,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5566,7 +5466,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5575,7 +5475,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5584,7 +5484,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5602,7 +5502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5610,13 +5510,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5630,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5642,6 +5542,80 @@
       </c>
       <c r="D2">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5651,34 +5625,42 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
     <sheet name="LoginInvalid" sheetId="7" r:id="rId2"/>
-    <sheet name="BillingAddress" sheetId="6" r:id="rId3"/>
-    <sheet name="Registration" sheetId="4" r:id="rId4"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId5"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId6"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId3"/>
+    <sheet name="BillingAddress" sheetId="6" r:id="rId4"/>
+    <sheet name="Registration" sheetId="4" r:id="rId5"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId6"/>
     <sheet name="Categories" sheetId="10" r:id="rId7"/>
     <sheet name="Sub" sheetId="11" r:id="rId8"/>
     <sheet name="flash" sheetId="12" r:id="rId9"/>
@@ -21,14 +21,14 @@
     <sheet name="Products" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Clothes!$A$1:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$51</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="119">
   <si>
     <t>Username</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>PasswordChar</t>
-  </si>
-  <si>
-    <t>MR@integrant.com</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Mohammad</t>
@@ -430,6 +424,18 @@
   </si>
   <si>
     <t>Please type in your password.</t>
+  </si>
+  <si>
+    <t>Thanks for your confidence.</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>demo@ss.com</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -927,10 +933,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,18 +963,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11">
         <v>42475</v>
@@ -1002,36 +1008,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1059,18 +1065,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1082,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,36 +1107,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1142,6 +1148,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J19"/>
   <sheetViews>
@@ -1153,16 +1206,16 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -1174,13 +1227,13 @@
         <v>11411</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,12 +1251,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,74 +1278,77 @@
     <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
       </c>
       <c r="H2">
         <v>36254</v>
@@ -1304,25 +1360,28 @@
         <v>1223456</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <v>11411</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1334,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
@@ -1352,25 +1411,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1378,22 +1437,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5">
         <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1401,22 +1460,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5">
         <v>50</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1424,22 +1483,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1447,22 +1506,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5">
         <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1470,22 +1529,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5">
         <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1493,22 +1552,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5">
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1516,22 +1575,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1539,22 +1598,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5">
         <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1562,22 +1621,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1585,22 +1644,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5">
         <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1608,22 +1667,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1631,22 +1690,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1654,22 +1713,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1677,22 +1736,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5">
         <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1700,22 +1759,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5">
         <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1723,22 +1782,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5">
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1746,22 +1805,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5">
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1769,22 +1828,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5">
         <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1792,22 +1851,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5">
         <v>50</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1815,22 +1874,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5">
         <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1838,22 +1897,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5">
         <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1861,22 +1920,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5">
         <v>50</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1884,22 +1943,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5">
         <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1907,22 +1966,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5">
         <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1930,22 +1989,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5">
         <v>50</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1953,22 +2012,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5">
         <v>50</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1976,22 +2035,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="5">
         <v>50</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1999,22 +2058,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5">
         <v>50</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2022,22 +2081,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5">
         <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2045,22 +2104,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5">
         <v>50</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2068,22 +2127,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5">
         <v>50</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2091,22 +2150,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5">
         <v>50</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2114,22 +2173,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5">
         <v>50</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2137,22 +2196,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="5">
         <v>50</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2160,22 +2219,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="5">
         <v>50</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2183,22 +2242,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="5">
         <v>50</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2206,22 +2265,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5">
         <v>50</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2229,22 +2288,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5">
         <v>50</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2252,22 +2311,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5">
         <v>50</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2275,22 +2334,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="5">
         <v>50</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2298,22 +2357,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="5">
         <v>50</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2321,22 +2380,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="5">
         <v>50</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2344,22 +2403,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5">
         <v>50</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2367,22 +2426,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D45" s="5">
         <v>50</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2390,22 +2449,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="5">
         <v>50</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2413,22 +2472,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="5">
         <v>50</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2436,22 +2495,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D48" s="5">
         <v>50</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2459,22 +2518,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D49" s="5">
         <v>50</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2482,22 +2541,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D50" s="5">
         <v>50</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2505,22 +2564,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D51" s="5">
         <v>50</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,53 +5557,6 @@
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5564,10 +5576,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5598,13 +5610,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,10 +5624,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5639,13 +5651,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5653,10 +5665,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -432,10 +432,10 @@
     <t>Message</t>
   </si>
   <si>
-    <t>demo@ss.com</t>
-  </si>
-  <si>
-    <t>ss</t>
+    <t>demonew@ss.com</t>
+  </si>
+  <si>
+    <t>test22</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,77 @@
     <t>end</t>
   </si>
   <si>
-    <t>04-16-2016unt 01h50:56</t>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>code2</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>senderEmail</t>
+  </si>
+  <si>
+    <t>RecName</t>
+  </si>
+  <si>
+    <t>RecEmails</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Jihad</t>
+  </si>
+  <si>
+    <t>Hello
+Hope Every thing is Ok</t>
+  </si>
+  <si>
+    <t>jMohamed@integrant.com</t>
+  </si>
+  <si>
+    <t>Chris@integrant.com</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>trouser</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Bad email or password.</t>
+  </si>
+  <si>
+    <t>Please type in your password.</t>
+  </si>
+  <si>
+    <t>Thanks for your confidence.</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>demonew@ss.com</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>04-20-2016 01h50:56</t>
   </si>
   <si>
     <r>
@@ -328,7 +398,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t>17</t>
+      <t>20</t>
     </r>
     <r>
       <rPr>
@@ -366,76 +436,6 @@
       </rPr>
       <t>56</t>
     </r>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>code2</t>
-  </si>
-  <si>
-    <t>SenderName</t>
-  </si>
-  <si>
-    <t>senderEmail</t>
-  </si>
-  <si>
-    <t>RecName</t>
-  </si>
-  <si>
-    <t>RecEmails</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Jihad</t>
-  </si>
-  <si>
-    <t>Hello
-Hope Every thing is Ok</t>
-  </si>
-  <si>
-    <t>jMohamed@integrant.com</t>
-  </si>
-  <si>
-    <t>Chris@integrant.com</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>trouser</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Bad email or password.</t>
-  </si>
-  <si>
-    <t>Please type in your password.</t>
-  </si>
-  <si>
-    <t>Thanks for your confidence.</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>demonew@ss.com</t>
-  </si>
-  <si>
-    <t>test22</t>
   </si>
 </sst>
 </file>
@@ -969,12 +969,12 @@
         <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="11">
         <v>42475</v>
@@ -1008,36 +1008,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1065,18 +1065,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1325,15 +1325,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1375,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -5639,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5665,10 +5665,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +582,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -904,26 +907,26 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -939,7 +942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -956,12 +959,12 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -972,7 +975,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -997,16 +1000,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1057,13 +1060,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1092,14 +1095,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>83</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>86</v>
@@ -1155,13 +1158,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1202,9 +1205,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1236,13 +1239,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1255,30 +1258,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>117</v>
       </c>
@@ -1378,10 +1381,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1401,15 +1404,15 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="5" width="11.109375" style="4"/>
+    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2591,7 +2594,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2600,7 +2603,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2609,7 +2612,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2618,7 +2621,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2627,7 +2630,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2636,7 +2639,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2645,7 +2648,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2654,7 +2657,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2663,7 +2666,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2672,7 +2675,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2681,7 +2684,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2690,7 +2693,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2699,7 +2702,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2708,7 +2711,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2717,7 +2720,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2726,7 +2729,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2735,7 +2738,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2744,7 +2747,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2753,7 +2756,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2762,7 +2765,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2771,7 +2774,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2780,7 +2783,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2789,7 +2792,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2798,7 +2801,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2807,7 +2810,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2816,7 +2819,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2825,7 +2828,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2834,7 +2837,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2843,7 +2846,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2852,7 +2855,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2861,7 +2864,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2870,7 +2873,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2879,7 +2882,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2888,7 +2891,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2897,7 +2900,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2906,7 +2909,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2915,7 +2918,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2924,7 +2927,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2933,7 +2936,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2942,7 +2945,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2951,7 +2954,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2960,7 +2963,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2969,7 +2972,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2978,7 +2981,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2987,7 +2990,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2996,7 +2999,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3005,7 +3008,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3014,7 +3017,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3023,7 +3026,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3032,7 +3035,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3041,7 +3044,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3050,7 +3053,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3059,7 +3062,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3068,7 +3071,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3077,7 +3080,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3086,7 +3089,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3095,7 +3098,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3104,7 +3107,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3113,7 +3116,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3122,7 +3125,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3131,7 +3134,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3140,7 +3143,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3149,7 +3152,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3158,7 +3161,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3167,7 +3170,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3176,7 +3179,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3185,7 +3188,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3194,7 +3197,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3203,7 +3206,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3212,7 +3215,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3221,7 +3224,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3230,7 +3233,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3239,7 +3242,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3248,7 +3251,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3257,7 +3260,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3266,7 +3269,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3275,7 +3278,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3284,7 +3287,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3293,7 +3296,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3302,7 +3305,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3311,7 +3314,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3320,7 +3323,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3329,7 +3332,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3338,7 +3341,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3347,7 +3350,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3356,7 +3359,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3365,7 +3368,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3374,7 +3377,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3383,7 +3386,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3392,7 +3395,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3401,7 +3404,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3410,7 +3413,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3419,7 +3422,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3428,7 +3431,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3437,7 +3440,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3446,7 +3449,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3455,7 +3458,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3464,7 +3467,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3473,7 +3476,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3482,7 +3485,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3491,7 +3494,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3500,7 +3503,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3509,7 +3512,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3518,7 +3521,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3527,7 +3530,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3536,7 +3539,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3545,7 +3548,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3554,7 +3557,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3563,7 +3566,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3572,7 +3575,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3581,7 +3584,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3590,7 +3593,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3599,7 +3602,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3608,7 +3611,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3617,7 +3620,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3626,7 +3629,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3635,7 +3638,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3644,7 +3647,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3653,7 +3656,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3662,7 +3665,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3671,7 +3674,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3680,7 +3683,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3689,7 +3692,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -3698,7 +3701,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -3707,7 +3710,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -3716,7 +3719,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -3725,7 +3728,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -3734,7 +3737,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -3743,7 +3746,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -3752,7 +3755,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -3761,7 +3764,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -3770,7 +3773,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -3779,7 +3782,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -3788,7 +3791,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -3797,7 +3800,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -3806,7 +3809,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -3815,7 +3818,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -3824,7 +3827,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -3833,7 +3836,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3842,7 +3845,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -3851,7 +3854,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -3860,7 +3863,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -3869,7 +3872,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -3878,7 +3881,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -3887,7 +3890,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -3896,7 +3899,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -3905,7 +3908,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -3914,7 +3917,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -3923,7 +3926,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -3932,7 +3935,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -3941,7 +3944,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -3950,7 +3953,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -3959,7 +3962,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -3968,7 +3971,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -3977,7 +3980,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -3986,7 +3989,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -3995,7 +3998,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4004,7 +4007,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4013,7 +4016,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4022,7 +4025,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4031,7 +4034,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4040,7 +4043,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4049,7 +4052,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4058,7 +4061,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4067,7 +4070,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4076,7 +4079,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4085,7 +4088,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4094,7 +4097,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4103,7 +4106,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4112,7 +4115,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4121,7 +4124,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4130,7 +4133,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -4139,7 +4142,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -4148,7 +4151,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -4157,7 +4160,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -4166,7 +4169,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -4175,7 +4178,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -4184,7 +4187,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -4193,7 +4196,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -4202,7 +4205,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -4211,7 +4214,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -4220,7 +4223,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -4229,7 +4232,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -4238,7 +4241,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -4247,7 +4250,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -4256,7 +4259,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -4265,7 +4268,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -4274,7 +4277,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -4283,7 +4286,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="5"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -4292,7 +4295,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -4301,7 +4304,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -4310,7 +4313,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -4319,7 +4322,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -4328,7 +4331,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -4337,7 +4340,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -4346,7 +4349,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -4355,7 +4358,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -4364,7 +4367,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -4373,7 +4376,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -4382,7 +4385,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -4391,7 +4394,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -4400,7 +4403,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -4409,7 +4412,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -4418,7 +4421,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -4427,7 +4430,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -4436,7 +4439,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4445,7 +4448,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4454,7 +4457,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4463,7 +4466,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4472,7 +4475,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4481,7 +4484,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4490,7 +4493,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4499,7 +4502,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4508,7 +4511,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4517,7 +4520,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4526,7 +4529,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4535,7 +4538,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4544,7 +4547,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4553,7 +4556,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4562,7 +4565,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4571,7 +4574,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4580,7 +4583,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4589,7 +4592,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4598,7 +4601,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4607,7 +4610,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4616,7 +4619,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4625,7 +4628,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4634,7 +4637,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4643,7 +4646,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4652,7 +4655,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4661,7 +4664,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4670,7 +4673,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4679,7 +4682,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4688,7 +4691,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4697,7 +4700,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4706,7 +4709,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4715,7 +4718,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4724,7 +4727,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4733,7 +4736,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4742,7 +4745,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4751,7 +4754,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4760,7 +4763,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4769,7 +4772,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4778,7 +4781,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4787,7 +4790,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4796,7 +4799,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="5"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4805,7 +4808,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="5"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4814,7 +4817,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4823,7 +4826,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4832,7 +4835,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="5"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4841,7 +4844,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4850,7 +4853,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="5"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4859,7 +4862,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="5"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4868,7 +4871,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="5"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4877,7 +4880,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4886,7 +4889,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="5"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4895,7 +4898,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4904,7 +4907,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="5"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4913,7 +4916,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="5"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4922,7 +4925,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="5"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4931,7 +4934,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4940,7 +4943,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="5"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4949,7 +4952,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4958,7 +4961,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="5"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4967,7 +4970,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="5"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4976,7 +4979,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4985,7 +4988,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="5"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4994,7 +4997,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="5"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -5003,7 +5006,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="5"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -5012,7 +5015,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="5"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -5021,7 +5024,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="5"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -5030,7 +5033,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -5039,7 +5042,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="5"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -5048,7 +5051,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="5"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -5057,7 +5060,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -5066,7 +5069,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="5"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -5075,7 +5078,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="5"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -5084,7 +5087,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -5093,7 +5096,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="5"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -5102,7 +5105,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="5"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -5111,7 +5114,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="5"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -5120,7 +5123,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="5"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -5129,7 +5132,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="5"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -5138,7 +5141,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="5"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -5147,7 +5150,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="5"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -5156,7 +5159,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -5165,7 +5168,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="5"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -5174,7 +5177,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="5"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -5183,7 +5186,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="5"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -5192,7 +5195,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -5201,7 +5204,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -5210,7 +5213,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -5219,7 +5222,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -5228,7 +5231,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="5"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -5237,7 +5240,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="5"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -5246,7 +5249,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="5"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -5255,7 +5258,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="5"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -5264,7 +5267,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -5273,7 +5276,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -5282,7 +5285,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="5"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -5291,7 +5294,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5300,7 +5303,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="5"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5309,7 +5312,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="5"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5318,7 +5321,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5327,7 +5330,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5336,7 +5339,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5345,7 +5348,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="5"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5354,7 +5357,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="5"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5363,7 +5366,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5372,7 +5375,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5381,7 +5384,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5390,7 +5393,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5399,7 +5402,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5408,7 +5411,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5417,7 +5420,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="5"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5426,7 +5429,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="5"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5435,7 +5438,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="5"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5444,7 +5447,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="5"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5453,7 +5456,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="5"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5462,7 +5465,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="5"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5471,7 +5474,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="5"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5480,7 +5483,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="5"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5489,7 +5492,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="5"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5498,7 +5501,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="5"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5507,7 +5510,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="5"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5516,7 +5519,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="5"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5525,7 +5528,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="5"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5534,7 +5537,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="5"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5543,7 +5546,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="5"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5565,16 +5568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5582,8 +5585,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -5603,12 +5606,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5643,13 +5646,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>50</v>
       </c>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -432,10 +432,10 @@
     <t>Message</t>
   </si>
   <si>
-    <t>demonew@ss.com</t>
-  </si>
-  <si>
     <t>test22</t>
+  </si>
+  <si>
+    <t>DemoFinal@jamaica.com</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -5568,7 +5568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,6 @@
     <t>RecEmails</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>DemoFinal@jamaica.com</t>
+  </si>
+  <si>
+    <t>comment1</t>
   </si>
 </sst>
 </file>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,24 +1023,24 @@
         <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1049,6 +1049,7 @@
     <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1068,18 +1069,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1139,7 +1140,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1328,15 +1329,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1378,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="121">
   <si>
     <t>Username</t>
   </si>
@@ -429,13 +429,19 @@
     <t>Message</t>
   </si>
   <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>DemoFinal@jamaica.com</t>
-  </si>
-  <si>
     <t>comment1</t>
+  </si>
+  <si>
+    <t>gff</t>
+  </si>
+  <si>
+    <t>fgf</t>
+  </si>
+  <si>
+    <t>fgg</t>
+  </si>
+  <si>
+    <t>MM@Gmail.com</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +1029,7 @@
         <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1093,7 +1099,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,19 +1340,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -198,8 +198,87 @@
     <t>04-16-2016unt 01h50:56</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>code2</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>senderEmail</t>
+  </si>
+  <si>
+    <t>RecName</t>
+  </si>
+  <si>
+    <t>RecEmails</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Jihad</t>
+  </si>
+  <si>
+    <t>Hello
+Hope Every thing is Ok</t>
+  </si>
+  <si>
+    <t>jMohamed@integrant.com</t>
+  </si>
+  <si>
+    <t>Chris@integrant.com</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>trouser</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Bad email or password.</t>
+  </si>
+  <si>
+    <t>Please type in your password.</t>
+  </si>
+  <si>
+    <t>Thanks for your confidence.</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>DemoFinal@jamaica.com</t>
+  </si>
+  <si>
+    <t>comment1</t>
+  </si>
+  <si>
+    <t>Please type in your email account.</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>test calc</t>
+  </si>
+  <si>
     <r>
-      <t>04-</t>
+      <t>05-</t>
     </r>
     <r>
       <rPr>
@@ -246,79 +325,6 @@
       </rPr>
       <t>56</t>
     </r>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>code2</t>
-  </si>
-  <si>
-    <t>SenderName</t>
-  </si>
-  <si>
-    <t>senderEmail</t>
-  </si>
-  <si>
-    <t>RecName</t>
-  </si>
-  <si>
-    <t>RecEmails</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Jihad</t>
-  </si>
-  <si>
-    <t>Hello
-Hope Every thing is Ok</t>
-  </si>
-  <si>
-    <t>jMohamed@integrant.com</t>
-  </si>
-  <si>
-    <t>Chris@integrant.com</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>trouser</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Bad email or password.</t>
-  </si>
-  <si>
-    <t>Please type in your password.</t>
-  </si>
-  <si>
-    <t>Thanks for your confidence.</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>DemoFinal@jamaica.com</t>
-  </si>
-  <si>
-    <t>comment1</t>
-  </si>
-  <si>
-    <t>Please type in your email account.</t>
   </si>
 </sst>
 </file>
@@ -855,12 +861,12 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="11">
         <v>42475</v>
@@ -894,36 +900,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -952,18 +958,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1020,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,7 +1029,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1212,15 +1218,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1262,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1284,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD421"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1336,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>41</v>
@@ -1427,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1445,7 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1449,8 +1455,11 @@
       <c r="C1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>50</v>
       </c>
@@ -1458,7 +1467,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="BillingAddress" sheetId="6" r:id="rId4"/>
     <sheet name="Registration" sheetId="4" r:id="rId5"/>
     <sheet name="Clothes" sheetId="5" r:id="rId6"/>
-    <sheet name="Categories" sheetId="10" r:id="rId7"/>
-    <sheet name="Sub" sheetId="11" r:id="rId8"/>
-    <sheet name="flash" sheetId="12" r:id="rId9"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId10"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
-    <sheet name="Products" sheetId="15" r:id="rId12"/>
+    <sheet name="Categories" sheetId="11" r:id="rId7"/>
+    <sheet name="flash" sheetId="12" r:id="rId8"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId9"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId10"/>
+    <sheet name="Products" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -178,12 +177,6 @@
   </si>
   <si>
     <t>parent</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>beverages</t>
   </si>
   <si>
     <t>Amount</t>
@@ -326,11 +319,17 @@
       <t>56</t>
     </r>
   </si>
+  <si>
+    <t>test category</t>
+  </si>
+  <si>
+    <t>test sub</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,9 +470,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,47 +838,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="11">
-        <v>42475</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -900,36 +855,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -958,18 +913,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1011,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +975,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,7 +984,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1218,15 +1173,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1268,7 +1223,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1359,31 +1314,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1393,49 +1354,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1447,16 +1368,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,13 +1385,54 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+      <c r="B2" s="11">
+        <v>42475</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Username</t>
   </si>
@@ -188,13 +188,7 @@
     <t>end</t>
   </si>
   <si>
-    <t>04-16-2016unt 01h50:56</t>
-  </si>
-  <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>code2</t>
   </si>
   <si>
     <t>SenderName</t>
@@ -270,26 +264,14 @@
     <t>test calc</t>
   </si>
   <si>
+    <t>test category</t>
+  </si>
+  <si>
+    <t>test sub</t>
+  </si>
+  <si>
     <r>
-      <t>05-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
+      <t>05-25-</t>
     </r>
     <r>
       <rPr>
@@ -320,17 +302,23 @@
     </r>
   </si>
   <si>
-    <t>test category</t>
-  </si>
-  <si>
-    <t>test sub</t>
+    <t>04-16-2016 01h50:56</t>
+  </si>
+  <si>
+    <t>coupon1</t>
+  </si>
+  <si>
+    <t>05-23-2016</t>
+  </si>
+  <si>
+    <t>06-23-2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +356,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008080"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -433,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,9 +440,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -470,6 +448,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,36 +835,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -913,18 +893,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -948,43 +928,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>76</v>
+      <c r="C4" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1173,15 +1153,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1223,7 +1203,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1317,7 +1297,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,15 +1316,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1337,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1357,7 @@
         <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,13 +1365,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1402,36 +1382,43 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="11">
-        <v>42475</v>
-      </c>
-      <c r="C2">
+        <v>81</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="16">
         <v>300</v>
       </c>
     </row>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Coupon" sheetId="13" r:id="rId9"/>
     <sheet name="SendEmail" sheetId="14" r:id="rId10"/>
     <sheet name="Products" sheetId="15" r:id="rId11"/>
+    <sheet name="Product instructions" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Username</t>
   </si>
@@ -312,6 +313,32 @@
   </si>
   <si>
     <t>06-23-2016</t>
+  </si>
+  <si>
+    <t>Tab1</t>
+  </si>
+  <si>
+    <t>Tab1-desc</t>
+  </si>
+  <si>
+    <t>Tab2</t>
+  </si>
+  <si>
+    <t>Tab2-desc</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Simple, elegant shapes are largely inspired by nature</t>
+  </si>
+  <si>
+    <t>We offer you the possibility to deliver within 72 hours on a selection of our products readily available. Your home is crucial in the ability to organize a delivery within 72 hours.
+Many of you appreciate the availability of the service: you have three quarters of cases of delivery within 72 hours (subject to availability and region). You choose your appointment delivery, in a slice of three hours warranty, 9h to 21h Monday to Friday and from 9am to 18pm on Saturday in Paris, from 9h to 17h Monday to Friday and 9am to 12pm Saturday in province.
+On the islands (Corsica, and.) and abroad: only the simple delivery is proposed. We refer to the costs and delays. Our Logistics Department is available Monday to Friday from 9am 20h and 18h from 9am on Saturday.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -409,12 +436,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,12 +488,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -912,6 +983,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="72.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C2 D1:E1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
@@ -1226,7 +1360,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1420,7 @@
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1296,14 +1430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t>test calc</t>
-  </si>
-  <si>
-    <t>test category</t>
-  </si>
-  <si>
-    <t>test sub</t>
   </si>
   <si>
     <r>
@@ -339,6 +333,15 @@
     <t>We offer you the possibility to deliver within 72 hours on a selection of our products readily available. Your home is crucial in the ability to organize a delivery within 72 hours.
 Many of you appreciate the availability of the service: you have three quarters of cases of delivery within 72 hours (subject to availability and region). You choose your appointment delivery, in a slice of three hours warranty, 9h to 21h Monday to Friday and from 9am to 18pm on Saturday in Paris, from 9h to 17h Monday to Friday and 9am to 12pm Saturday in province.
 On the islands (Corsica, and.) and abroad: only the simple delivery is proposed. We refer to the costs and delays. Our Logistics Department is available Monday to Friday from 9am 20h and 18h from 9am on Saturday.</t>
+  </si>
+  <si>
+    <t>ehab</t>
+  </si>
+  <si>
+    <t>ehabsub</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +492,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,7 +965,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1002,16 +1014,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -1019,16 +1031,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1359,20 +1371,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.140625" style="4"/>
+    <col min="1" max="1" width="11.140625" style="20"/>
+    <col min="2" max="3" width="11.140625" style="4"/>
+    <col min="4" max="4" width="11.140625" style="20"/>
+    <col min="5" max="5" width="11.140625" style="4"/>
     <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
     <col min="8" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1381,7 +1396,7 @@
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1395,7 +1410,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1404,11 +1419,11 @@
       <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="19">
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -1423,6 +1438,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1431,7 +1447,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,15 +1465,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1486,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,10 +1514,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1543,13 +1559,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="16">
         <v>300</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -265,8 +265,55 @@
     <t>test calc</t>
   </si>
   <si>
+    <t>04-16-2016 01h50:56</t>
+  </si>
+  <si>
+    <t>coupon1</t>
+  </si>
+  <si>
+    <t>05-23-2016</t>
+  </si>
+  <si>
+    <t>06-23-2016</t>
+  </si>
+  <si>
+    <t>Tab1</t>
+  </si>
+  <si>
+    <t>Tab1-desc</t>
+  </si>
+  <si>
+    <t>Tab2</t>
+  </si>
+  <si>
+    <t>Tab2-desc</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Simple, elegant shapes are largely inspired by nature</t>
+  </si>
+  <si>
+    <t>We offer you the possibility to deliver within 72 hours on a selection of our products readily available. Your home is crucial in the ability to organize a delivery within 72 hours.
+Many of you appreciate the availability of the service: you have three quarters of cases of delivery within 72 hours (subject to availability and region). You choose your appointment delivery, in a slice of three hours warranty, 9h to 21h Monday to Friday and from 9am to 18pm on Saturday in Paris, from 9h to 17h Monday to Friday and 9am to 12pm Saturday in province.
+On the islands (Corsica, and.) and abroad: only the simple delivery is proposed. We refer to the costs and delays. Our Logistics Department is available Monday to Friday from 9am 20h and 18h from 9am on Saturday.</t>
+  </si>
+  <si>
+    <t>ehab</t>
+  </si>
+  <si>
+    <t>ehabsub</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
     <r>
-      <t>05-25-</t>
+      <t>05-30-</t>
     </r>
     <r>
       <rPr>
@@ -295,53 +342,6 @@
       </rPr>
       <t>56</t>
     </r>
-  </si>
-  <si>
-    <t>04-16-2016 01h50:56</t>
-  </si>
-  <si>
-    <t>coupon1</t>
-  </si>
-  <si>
-    <t>05-23-2016</t>
-  </si>
-  <si>
-    <t>06-23-2016</t>
-  </si>
-  <si>
-    <t>Tab1</t>
-  </si>
-  <si>
-    <t>Tab1-desc</t>
-  </si>
-  <si>
-    <t>Tab2</t>
-  </si>
-  <si>
-    <t>Tab2-desc</t>
-  </si>
-  <si>
-    <t>Advice</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Simple, elegant shapes are largely inspired by nature</t>
-  </si>
-  <si>
-    <t>We offer you the possibility to deliver within 72 hours on a selection of our products readily available. Your home is crucial in the ability to organize a delivery within 72 hours.
-Many of you appreciate the availability of the service: you have three quarters of cases of delivery within 72 hours (subject to availability and region). You choose your appointment delivery, in a slice of three hours warranty, 9h to 21h Monday to Friday and from 9am to 18pm on Saturday in Paris, from 9h to 17h Monday to Friday and 9am to 12pm Saturday in province.
-On the islands (Corsica, and.) and abroad: only the simple delivery is proposed. We refer to the costs and delays. Our Logistics Department is available Monday to Friday from 9am 20h and 18h from 9am on Saturday.</t>
-  </si>
-  <si>
-    <t>ehab</t>
-  </si>
-  <si>
-    <t>ehabsub</t>
-  </si>
-  <si>
-    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -1014,16 +1014,16 @@
         <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -1031,16 +1031,16 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1423,7 +1423,7 @@
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,15 +1465,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1514,10 +1514,10 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D2" s="16">
         <v>300</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Username</t>
   </si>
@@ -168,9 +168,6 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Thank you</t>
-  </si>
-  <si>
     <t>h0tr1ngG</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Clothing</t>
   </si>
   <si>
     <t>trouser</t>
@@ -342,6 +336,9 @@
       </rPr>
       <t>56</t>
     </r>
+  </si>
+  <si>
+    <t>Women</t>
   </si>
 </sst>
 </file>
@@ -855,26 +852,26 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,15 +879,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -907,47 +904,47 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -965,29 +962,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1003,44 +1000,44 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="72.140625" customWidth="1"/>
+    <col min="5" max="5" width="72.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1066,14 +1063,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1081,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -1092,25 +1089,25 @@
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1129,13 +1126,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1170,15 +1167,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1206,17 +1203,14 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -1233,26 +1227,26 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1299,15 +1293,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1349,13 +1343,13 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
@@ -1375,18 +1369,18 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="20"/>
-    <col min="2" max="3" width="11.140625" style="4"/>
-    <col min="4" max="4" width="11.140625" style="20"/>
-    <col min="5" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="1" width="11.109375" style="20"/>
+    <col min="2" max="3" width="11.109375" style="4"/>
+    <col min="4" max="4" width="11.109375" style="20"/>
+    <col min="5" max="5" width="11.109375" style="4"/>
+    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -1423,7 +1417,7 @@
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -1450,30 +1444,30 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1485,42 +1479,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1537,35 +1531,35 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="2" max="3" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D2" s="16">
         <v>300</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
     <sheet name="LoginInvalid" sheetId="7" r:id="rId2"/>
     <sheet name="RandomData" sheetId="2" r:id="rId3"/>
     <sheet name="BillingAddress" sheetId="6" r:id="rId4"/>
-    <sheet name="Registration" sheetId="4" r:id="rId5"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId6"/>
-    <sheet name="Categories" sheetId="11" r:id="rId7"/>
-    <sheet name="flash" sheetId="12" r:id="rId8"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId9"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId10"/>
-    <sheet name="Products" sheetId="15" r:id="rId11"/>
-    <sheet name="Product instructions" sheetId="16" r:id="rId12"/>
+    <sheet name="NewShppingAddress" sheetId="17" r:id="rId5"/>
+    <sheet name="Registration" sheetId="4" r:id="rId6"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId7"/>
+    <sheet name="Categories" sheetId="11" r:id="rId8"/>
+    <sheet name="flash" sheetId="12" r:id="rId9"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId10"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
+    <sheet name="Products" sheetId="15" r:id="rId12"/>
+    <sheet name="Product instructions" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -339,6 +340,9 @@
   </si>
   <si>
     <t>Women</t>
+  </si>
+  <si>
+    <t>JihadMohamed@Gmail.com</t>
   </si>
 </sst>
 </file>
@@ -898,6 +902,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="16">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -957,7 +1009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -992,7 +1044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1169,11 +1221,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1220,6 +1275,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>566</v>
+      </c>
+      <c r="G2">
+        <v>11411</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>1257897445</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -1361,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1436,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1475,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1521,52 +1631,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="16">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginValid" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginInvalid" sheetId="7" r:id="rId2"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId3"/>
-    <sheet name="BillingAddress" sheetId="6" r:id="rId4"/>
-    <sheet name="NewShppingAddress" sheetId="17" r:id="rId5"/>
-    <sheet name="Registration" sheetId="4" r:id="rId6"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId7"/>
-    <sheet name="Categories" sheetId="11" r:id="rId8"/>
-    <sheet name="flash" sheetId="12" r:id="rId9"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId10"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
-    <sheet name="Products" sheetId="15" r:id="rId12"/>
-    <sheet name="Product instructions" sheetId="16" r:id="rId13"/>
+    <sheet name="Registration" sheetId="4" r:id="rId1"/>
+    <sheet name="LoginValid" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginInvalid" sheetId="7" r:id="rId3"/>
+    <sheet name="Search" sheetId="18" r:id="rId4"/>
+    <sheet name="ShppingAddress" sheetId="17" r:id="rId5"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId6"/>
+    <sheet name="Categories" sheetId="11" r:id="rId7"/>
+    <sheet name="flash" sheetId="12" r:id="rId8"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId9"/>
+    <sheet name="Products" sheetId="15" r:id="rId10"/>
+    <sheet name="Product instructions" sheetId="16" r:id="rId11"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId12"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Clothes!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t>Username</t>
   </si>
@@ -157,9 +157,6 @@
 Normal thickness</t>
   </si>
   <si>
-    <t>Top1</t>
-  </si>
-  <si>
     <t>test123@email.com</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>trouser</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -242,12 +236,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>test22</t>
-  </si>
-  <si>
-    <t>DemoFinal@jamaica.com</t>
-  </si>
-  <si>
     <t>comment1</t>
   </si>
   <si>
@@ -275,33 +263,13 @@
     <t>Tab1</t>
   </si>
   <si>
-    <t>Tab1-desc</t>
-  </si>
-  <si>
     <t>Tab2</t>
   </si>
   <si>
-    <t>Tab2-desc</t>
-  </si>
-  <si>
     <t>Advice</t>
   </si>
   <si>
     <t>Availability</t>
-  </si>
-  <si>
-    <t>Simple, elegant shapes are largely inspired by nature</t>
-  </si>
-  <si>
-    <t>We offer you the possibility to deliver within 72 hours on a selection of our products readily available. Your home is crucial in the ability to organize a delivery within 72 hours.
-Many of you appreciate the availability of the service: you have three quarters of cases of delivery within 72 hours (subject to availability and region). You choose your appointment delivery, in a slice of three hours warranty, 9h to 21h Monday to Friday and from 9am to 18pm on Saturday in Paris, from 9h to 17h Monday to Friday and 9am to 12pm Saturday in province.
-On the islands (Corsica, and.) and abroad: only the simple delivery is proposed. We refer to the costs and delays. Our Logistics Department is available Monday to Friday from 9am 20h and 18h from 9am on Saturday.</t>
-  </si>
-  <si>
-    <t>ehab</t>
-  </si>
-  <si>
-    <t>ehabsub</t>
   </si>
   <si>
     <t>test3</t>
@@ -339,17 +307,80 @@
     </r>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
     <t>JihadMohamed@Gmail.com</t>
+  </si>
+  <si>
+    <t>Zara Men Handwatch</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Invalid user</t>
+  </si>
+  <si>
+    <t>Blank password</t>
+  </si>
+  <si>
+    <t>Blank user</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Search_valid_product</t>
+  </si>
+  <si>
+    <t>Search_Valid_category</t>
+  </si>
+  <si>
+    <t>Search_invalid_product</t>
+  </si>
+  <si>
+    <t>Search_blank</t>
+  </si>
+  <si>
+    <t>Ikea Bar Chair</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Sofas</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>No products found</t>
+  </si>
+  <si>
+    <t>we found</t>
+  </si>
+  <si>
+    <t>No data entered</t>
+  </si>
+  <si>
+    <t>Demomain</t>
+  </si>
+  <si>
+    <t>Demosub</t>
+  </si>
+  <si>
+    <t>new4</t>
+  </si>
+  <si>
+    <t>n3i3@jamaica.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,8 +421,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,12 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,22 +536,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -850,105 +876,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>36254</v>
+      </c>
+      <c r="I2">
+        <v>233456</v>
+      </c>
+      <c r="J2">
+        <v>1223456</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>11411</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1 A1:B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="9.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="16">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -956,47 +1106,47 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1009,101 +1159,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="72.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C2 D1:E1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1112,165 +1211,205 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:I2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>566</v>
-      </c>
-      <c r="G2">
-        <v>11411</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>92</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1278,29 +1417,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>92</v>
+      <c r="D2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -1312,7 +1451,7 @@
         <v>11411</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -1331,167 +1470,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>36254</v>
-      </c>
-      <c r="I2">
-        <v>233456</v>
-      </c>
-      <c r="J2">
-        <v>1223456</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>11411</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="20"/>
-    <col min="2" max="3" width="11.109375" style="4"/>
-    <col min="4" max="4" width="11.109375" style="20"/>
-    <col min="5" max="5" width="11.109375" style="4"/>
-    <col min="6" max="6" width="55.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.109375" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.109375" style="4"/>
+    <col min="1" max="1" width="11.140625" style="18"/>
+    <col min="2" max="3" width="11.140625" style="4"/>
+    <col min="4" max="4" width="11.140625" style="18"/>
+    <col min="5" max="5" width="11.140625" style="4"/>
+    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1500,7 +1497,7 @@
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1513,8 +1510,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1523,11 +1520,11 @@
       <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -1539,14 +1536,14 @@
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1554,34 +1551,82 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1590,41 +1635,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="13" t="s">
         <v>74</v>
+      </c>
+      <c r="D2" s="14">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Username</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>Demo</t>
   </si>
   <si>
     <t>This top trend combines a casual look to a flawless look!</t>
@@ -245,13 +242,7 @@
     <t>Product</t>
   </si>
   <si>
-    <t>test calc</t>
-  </si>
-  <si>
     <t>04-16-2016 01h50:56</t>
-  </si>
-  <si>
-    <t>coupon1</t>
   </si>
   <si>
     <t>05-23-2016</t>
@@ -370,10 +361,16 @@
     <t>Demosub</t>
   </si>
   <si>
-    <t>new4</t>
-  </si>
-  <si>
-    <t>n3i3@jamaica.com</t>
+    <t>new5</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Demotest</t>
+  </si>
+  <si>
+    <t>n443i3@jamaica.com</t>
   </si>
 </sst>
 </file>
@@ -948,15 +945,15 @@
         <v>26</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -998,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1021,7 +1018,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,18 +1029,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1069,21 +1066,21 @@
         <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1117,36 +1114,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1276,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1285,45 +1282,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1351,60 +1348,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1433,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -1451,7 +1448,7 @@
         <v>11411</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -1473,7 +1470,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,22 +1512,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D2" s="17">
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1561,20 +1558,20 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1584,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,16 +1595,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +1612,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1632,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,24 +1646,24 @@
         <v>35</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="14">
         <v>300</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -361,16 +361,16 @@
     <t>Demosub</t>
   </si>
   <si>
-    <t>new5</t>
-  </si>
-  <si>
     <t>demo</t>
   </si>
   <si>
     <t>Demotest</t>
   </si>
   <si>
-    <t>n443i3@jamaica.com</t>
+    <t>new6</t>
+  </si>
+  <si>
+    <t>366i3@jamaica.com</t>
   </si>
 </sst>
 </file>
@@ -953,7 +953,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1512,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="17">
         <v>500</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>70</v>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -367,10 +367,10 @@
     <t>Demotest</t>
   </si>
   <si>
-    <t>new6</t>
-  </si>
-  <si>
-    <t>366i3@jamaica.com</t>
+    <t>new7</t>
+  </si>
+  <si>
+    <t>36ff6i3@jamaica.com</t>
   </si>
 </sst>
 </file>

--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="4" r:id="rId1"/>
-    <sheet name="LoginValid" sheetId="1" r:id="rId2"/>
-    <sheet name="LoginInvalid" sheetId="7" r:id="rId3"/>
-    <sheet name="Search" sheetId="18" r:id="rId4"/>
-    <sheet name="ShppingAddress" sheetId="17" r:id="rId5"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId6"/>
-    <sheet name="Categories" sheetId="11" r:id="rId7"/>
-    <sheet name="flash" sheetId="12" r:id="rId8"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId9"/>
-    <sheet name="Products" sheetId="15" r:id="rId10"/>
-    <sheet name="Product instructions" sheetId="16" r:id="rId11"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId12"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId13"/>
+    <sheet name="Login" sheetId="7" r:id="rId2"/>
+    <sheet name="Search" sheetId="18" r:id="rId3"/>
+    <sheet name="ShppingAddress" sheetId="17" r:id="rId4"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId5"/>
+    <sheet name="Categories" sheetId="11" r:id="rId6"/>
+    <sheet name="flash" sheetId="12" r:id="rId7"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId8"/>
+    <sheet name="Products" sheetId="15" r:id="rId9"/>
+    <sheet name="Product instructions" sheetId="16" r:id="rId10"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Clothes!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -367,17 +366,17 @@
     <t>Demotest</t>
   </si>
   <si>
-    <t>new7</t>
-  </si>
-  <si>
-    <t>36ff6i3@jamaica.com</t>
+    <t>demo@jamaica.com</t>
+  </si>
+  <si>
+    <t>Valid user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +397,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.6"/>
-      <color rgb="FF008080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -491,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,20 +497,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,10 +521,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -875,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -950,10 +939,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1015,45 +1004,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1022,7 @@
       <c r="B1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1095,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1156,7 +1110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1205,62 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,38 +1174,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="10"/>
@@ -1312,7 +1214,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
@@ -1321,6 +1223,20 @@
       </c>
       <c r="D4" s="10" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1367,10 +1283,10 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1381,7 +1297,7 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1392,7 +1308,7 @@
       <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1400,7 +1316,7 @@
       <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1410,7 +1326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J2"/>
   <sheetViews>
@@ -1465,7 +1381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1475,9 +1391,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="18"/>
+    <col min="1" max="1" width="11.140625" style="16"/>
     <col min="2" max="3" width="11.140625" style="4"/>
-    <col min="4" max="4" width="11.140625" style="18"/>
+    <col min="4" max="4" width="11.140625" style="16"/>
     <col min="5" max="5" width="11.140625" style="4"/>
     <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
@@ -1485,7 +1401,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1494,7 +1410,7 @@
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1508,7 +1424,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1517,7 +1433,7 @@
       <c r="C2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <v>500</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1540,7 +1456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1579,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1627,7 +1543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1637,21 +1553,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="2" max="3" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1659,13 +1575,13 @@
       <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>300</v>
       </c>
     </row>
@@ -1673,4 +1589,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utilities/Data.xlsx
+++ b/Utilities/Data.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="4" r:id="rId1"/>
     <sheet name="Login" sheetId="7" r:id="rId2"/>
-    <sheet name="Search" sheetId="18" r:id="rId3"/>
-    <sheet name="ShppingAddress" sheetId="17" r:id="rId4"/>
-    <sheet name="Clothes" sheetId="5" r:id="rId5"/>
-    <sheet name="Categories" sheetId="11" r:id="rId6"/>
-    <sheet name="flash" sheetId="12" r:id="rId7"/>
-    <sheet name="Coupon" sheetId="13" r:id="rId8"/>
-    <sheet name="Products" sheetId="15" r:id="rId9"/>
-    <sheet name="Product instructions" sheetId="16" r:id="rId10"/>
-    <sheet name="SendEmail" sheetId="14" r:id="rId11"/>
-    <sheet name="RandomData" sheetId="2" r:id="rId12"/>
+    <sheet name="Admin" sheetId="19" r:id="rId3"/>
+    <sheet name="Search" sheetId="18" r:id="rId4"/>
+    <sheet name="ShppingAddress" sheetId="17" r:id="rId5"/>
+    <sheet name="Clothes" sheetId="5" r:id="rId6"/>
+    <sheet name="Categories" sheetId="11" r:id="rId7"/>
+    <sheet name="flash" sheetId="12" r:id="rId8"/>
+    <sheet name="Coupon" sheetId="13" r:id="rId9"/>
+    <sheet name="Products" sheetId="15" r:id="rId10"/>
+    <sheet name="Product instructions" sheetId="16" r:id="rId11"/>
+    <sheet name="SendEmail" sheetId="14" r:id="rId12"/>
+    <sheet name="RandomData" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Clothes!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clothes!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
   <si>
     <t>Username</t>
   </si>
@@ -67,12 +68,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>nickname</t>
   </si>
   <si>
     <t>firstName</t>
@@ -364,9 +359,6 @@
   </si>
   <si>
     <t>Demotest</t>
-  </si>
-  <si>
-    <t>demo@jamaica.com</t>
   </si>
   <si>
     <t>Valid user</t>
@@ -483,9 +475,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -862,147 +853,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>36254</v>
+      </c>
+      <c r="G2">
+        <v>233456</v>
+      </c>
+      <c r="H2">
+        <v>1223456</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>11411</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>36254</v>
-      </c>
-      <c r="I2">
-        <v>233456</v>
-      </c>
-      <c r="J2">
-        <v>1223456</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>11411</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1016,25 +1022,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1068,36 +1074,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1161,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,68 +1180,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>67</v>
+      <c r="D4" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1248,6 +1254,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1264,60 +1304,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J2"/>
   <sheetViews>
@@ -1346,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -1364,10 +1404,10 @@
         <v>11411</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>1257897445</v>
@@ -1381,7 +1421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1391,59 +1431,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="16"/>
-    <col min="2" max="3" width="11.140625" style="4"/>
-    <col min="4" max="4" width="11.140625" style="16"/>
-    <col min="5" max="5" width="11.140625" style="4"/>
-    <col min="6" max="6" width="55.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.140625" style="4"/>
+    <col min="1" max="1" width="11.140625" style="15"/>
+    <col min="2" max="3" width="11.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="15"/>
+    <col min="5" max="5" width="11.140625" style="3"/>
+    <col min="6" max="6" width="55.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="14">
+        <v>500</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="15">
-        <v>500</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1471,23 +1511,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1511,30 +1551,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1553,35 +1593,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="12"/>
+    <col min="2" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="12">
+        <v>97</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="11">
         <v>300</v>
       </c>
     </row>
@@ -1589,39 +1629,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>